--- a/errors_table/errorsTable_15min_LSTM_huberLoss.xlsx
+++ b/errors_table/errorsTable_15min_LSTM_huberLoss.xlsx
@@ -775,100 +775,100 @@
         <v>8</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0149375377</v>
+        <v>0.01440538465976715</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0003947445</v>
+        <v>0.0003738876548595726</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0747462809</v>
+        <v>0.07798340916633606</v>
       </c>
       <c r="H5" t="n">
-        <v>4.8341836929</v>
+        <v>4.814169406890869</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0179838203</v>
+        <v>0.01591269299387932</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0006349931000000001</v>
+        <v>0.000558357045520097</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1144774556</v>
+        <v>0.1186398267745972</v>
       </c>
       <c r="L5" t="n">
-        <v>11.7399234772</v>
+        <v>9.355503082275391</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0850891218170732</v>
+        <v>0.05915362770943151</v>
       </c>
       <c r="N5" t="n">
-        <v>0.01299364164991043</v>
+        <v>0.006526599734689333</v>
       </c>
       <c r="O5" t="n">
-        <v>0.3612976644000003</v>
+        <v>0.2721369681553938</v>
       </c>
       <c r="P5" t="n">
-        <v>0.01833147245375855</v>
+        <v>0.01286519525950252</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.1668934289378049</v>
+        <v>0.09817281067877234</v>
       </c>
       <c r="R5" t="n">
-        <v>0.03875805757757164</v>
+        <v>0.01687730679094691</v>
       </c>
       <c r="S5" t="n">
-        <v>0.5958407617999999</v>
+        <v>0.4514306335626799</v>
       </c>
       <c r="T5" t="n">
-        <v>0.03548550286765448</v>
+        <v>0.02115112275405023</v>
       </c>
       <c r="U5" t="n">
-        <v>0.09231442945000012</v>
+        <v>0.08525301029919741</v>
       </c>
       <c r="V5" t="n">
-        <v>0.01433559055448921</v>
+        <v>0.0130400233075679</v>
       </c>
       <c r="W5" t="n">
-        <v>0.3522676737000001</v>
+        <v>0.3696163106649237</v>
       </c>
       <c r="X5" t="n">
-        <v>0.01290846932472827</v>
+        <v>0.01139551327592378</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.1112651719707318</v>
+        <v>0.09244007984237178</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.01868076803955901</v>
+        <v>0.01466000334285711</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.3399549372999999</v>
+        <v>0.3668570340914243</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.01685763611260098</v>
+        <v>0.01251428034998048</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.09509648178024085</v>
+        <v>0.06109331919969271</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.01304023079702102</v>
+        <v>0.006274353455723718</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.4342387200000006</v>
+        <v>0.3884237842881788</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.01931717545988785</v>
+        <v>0.01233154227863219</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.196782312364273</v>
+        <v>0.1025504762561141</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.04299512849277277</v>
+        <v>0.01404820369320512</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.5958407617999999</v>
+        <v>0.4514306335626799</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.04007667820252649</v>
+        <v>0.02083469792903089</v>
       </c>
     </row>
     <row r="6">
@@ -887,100 +887,100 @@
         <v>16</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0154995974</v>
+        <v>0.01549959741532803</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0004345191</v>
+        <v>0.0004345190827734768</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0853114128</v>
+        <v>0.0853114128112793</v>
       </c>
       <c r="H6" t="n">
-        <v>4.9974546432</v>
+        <v>4.997454643249512</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0184220076</v>
+        <v>0.01842200756072998</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0007836159000000001</v>
+        <v>0.000783615920227021</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1604972482</v>
+        <v>0.16049724817276</v>
       </c>
       <c r="L6" t="n">
-        <v>11.8239278793</v>
+        <v>11.8239278793335</v>
       </c>
       <c r="M6" t="n">
-        <v>0.06663231493292684</v>
+        <v>0.06663231492829468</v>
       </c>
       <c r="N6" t="n">
-        <v>0.00851334125679864</v>
+        <v>0.008513341256497038</v>
       </c>
       <c r="O6" t="n">
-        <v>0.3402463692</v>
+        <v>0.3402463691935225</v>
       </c>
       <c r="P6" t="n">
-        <v>0.01443028645118541</v>
+        <v>0.01443028645048885</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.1241176943036585</v>
+        <v>0.1241176943006373</v>
       </c>
       <c r="R6" t="n">
-        <v>0.02841189005851809</v>
+        <v>0.02841189005731553</v>
       </c>
       <c r="S6" t="n">
-        <v>0.5527036647000001</v>
+        <v>0.552703664674425</v>
       </c>
       <c r="T6" t="n">
-        <v>0.02640544409770767</v>
+        <v>0.02640544409696568</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08625344392195121</v>
+        <v>0.08625344392260105</v>
       </c>
       <c r="V6" t="n">
-        <v>0.0139320097215191</v>
+        <v>0.01393200972192716</v>
       </c>
       <c r="W6" t="n">
-        <v>0.3597827764999995</v>
+        <v>0.3597827764757255</v>
       </c>
       <c r="X6" t="n">
-        <v>0.01150208959692401</v>
+        <v>0.01150208959738881</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.09152730199512199</v>
+        <v>0.09152730199896936</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.01329532759735832</v>
+        <v>0.01329532759787065</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.3256220064000015</v>
+        <v>0.3256220063390174</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.01324407143093379</v>
+        <v>0.01324407143148397</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.06527489757850133</v>
+        <v>0.0652748975780473</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.007050843939180829</v>
+        <v>0.007050843939049586</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.4005356420000004</v>
+        <v>0.4005356420635025</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.01317936444525782</v>
+        <v>0.0131793644451842</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.1281136767677074</v>
+        <v>0.1281136767688028</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.02028937625778525</v>
+        <v>0.02028937625765649</v>
       </c>
       <c r="AI6" t="n">
-        <v>0.5527036647000001</v>
+        <v>0.552703664674425</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0.02608270824983547</v>
+        <v>0.02608270825003102</v>
       </c>
     </row>
     <row r="7">
@@ -999,100 +999,100 @@
         <v>32</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0140374601</v>
+        <v>0.01403746008872986</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0003790268</v>
+        <v>0.0003790267510339618</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0857108533</v>
+        <v>0.08571085333824158</v>
       </c>
       <c r="H7" t="n">
-        <v>4.8300228119</v>
+        <v>4.830022811889648</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0170814227</v>
+        <v>0.01708142273128033</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0006916204</v>
+        <v>0.0006916204001754522</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1549619436</v>
+        <v>0.1549619436264038</v>
       </c>
       <c r="L7" t="n">
-        <v>11.5959596634</v>
+        <v>11.59595966339111</v>
       </c>
       <c r="M7" t="n">
-        <v>0.06491864798414634</v>
+        <v>0.06491864799111646</v>
       </c>
       <c r="N7" t="n">
-        <v>0.007467593329651057</v>
+        <v>0.007467593331338437</v>
       </c>
       <c r="O7" t="n">
-        <v>0.3212111676000005</v>
+        <v>0.3212111676727432</v>
       </c>
       <c r="P7" t="n">
-        <v>0.01406328301737482</v>
+        <v>0.01406328301889424</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.09168389294390245</v>
+        <v>0.09168389294880361</v>
       </c>
       <c r="R7" t="n">
-        <v>0.01900300146339255</v>
+        <v>0.01900300146427771</v>
       </c>
       <c r="S7" t="n">
-        <v>0.5392972967</v>
+        <v>0.5392972966697585</v>
       </c>
       <c r="T7" t="n">
-        <v>0.02022704755912543</v>
+        <v>0.0202270475601095</v>
       </c>
       <c r="U7" t="n">
-        <v>0.08466134196829272</v>
+        <v>0.08466134196231316</v>
       </c>
       <c r="V7" t="n">
-        <v>0.01368016800155651</v>
+        <v>0.01368016800183598</v>
       </c>
       <c r="W7" t="n">
-        <v>0.3673434254999997</v>
+        <v>0.3673434254164647</v>
       </c>
       <c r="X7" t="n">
-        <v>0.01126521048891775</v>
+        <v>0.01126521048853868</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.08314139106219517</v>
+        <v>0.08314139107252304</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.01356137543422224</v>
+        <v>0.013561375434606</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.3460397572999998</v>
+        <v>0.3460397572965803</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.01127862926865115</v>
+        <v>0.01127862927018618</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.06042886806391615</v>
+        <v>0.06042886806371184</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.00600936539764147</v>
+        <v>0.006009365397531844</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.3673434254999997</v>
+        <v>0.3673434254164647</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.01214438553788488</v>
+        <v>0.01214438553788297</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.05234067576039251</v>
+        <v>0.0523406757606154</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.00465536235409184</v>
+        <v>0.004655362354026553</v>
       </c>
       <c r="AI7" t="n">
-        <v>0.5392972967</v>
+        <v>0.5392972966697585</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0.01051549576845678</v>
+        <v>0.01051549576850797</v>
       </c>
     </row>
     <row r="8">
@@ -1111,100 +1111,100 @@
         <v>64</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0145996734</v>
+        <v>0.01459967344999313</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0004076846</v>
+        <v>0.0004076845943927765</v>
       </c>
       <c r="G8" t="n">
-        <v>0.09533566240000001</v>
+        <v>0.09533566236495972</v>
       </c>
       <c r="H8" t="n">
-        <v>5.2475676537</v>
+        <v>5.247567653656006</v>
       </c>
       <c r="I8" t="n">
-        <v>0.015743874</v>
+        <v>0.01574387401342392</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0006210995</v>
+        <v>0.0006210994906723499</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1792427897</v>
+        <v>0.1792427897453308</v>
       </c>
       <c r="L8" t="n">
-        <v>11.6496620178</v>
+        <v>11.64966201782227</v>
       </c>
       <c r="M8" t="n">
-        <v>0.07100982314268293</v>
+        <v>0.07100982314274229</v>
       </c>
       <c r="N8" t="n">
-        <v>0.009341094421776977</v>
+        <v>0.00934109442221135</v>
       </c>
       <c r="O8" t="n">
-        <v>0.3848864540000001</v>
+        <v>0.3848864540841674</v>
       </c>
       <c r="P8" t="n">
-        <v>0.01536454647935512</v>
+        <v>0.01536454647940688</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.1199925470670731</v>
+        <v>0.1199925470646107</v>
       </c>
       <c r="R8" t="n">
-        <v>0.03392930782383805</v>
+        <v>0.0339293078228786</v>
       </c>
       <c r="S8" t="n">
-        <v>0.737968285</v>
+        <v>0.7379682849433351</v>
       </c>
       <c r="T8" t="n">
-        <v>0.02661440251476423</v>
+        <v>0.02661440251402771</v>
       </c>
       <c r="U8" t="n">
-        <v>0.09028626261097572</v>
+        <v>0.09028626261856061</v>
       </c>
       <c r="V8" t="n">
-        <v>0.01586119993467406</v>
+        <v>0.01586119993579108</v>
       </c>
       <c r="W8" t="n">
-        <v>0.3981281555000002</v>
+        <v>0.3981281554655425</v>
       </c>
       <c r="X8" t="n">
-        <v>0.01195515944355605</v>
+        <v>0.01195515944476314</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.1250197122182927</v>
+        <v>0.1250197122216878</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.02664590071513458</v>
+        <v>0.02664590071547796</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.4552569762000003</v>
+        <v>0.455256976174141</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.0164983821938871</v>
+        <v>0.01649838219426558</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.06130358186636933</v>
+        <v>0.06130358186607146</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.006268914067781601</v>
+        <v>0.006268914067729761</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.3981281555000002</v>
+        <v>0.3981281554655425</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.01231126911454699</v>
+        <v>0.0123112691144777</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.05287882586311329</v>
+        <v>0.05287882586360546</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.005505838323537967</v>
+        <v>0.005505838323526943</v>
       </c>
       <c r="AI8" t="n">
-        <v>0.737968285</v>
+        <v>0.7379682849433351</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0.01054179245831341</v>
+        <v>0.01054179245839893</v>
       </c>
     </row>
     <row r="9">
@@ -1223,100 +1223,100 @@
         <v>96</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0167297628</v>
+        <v>0.01672976277768612</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0005973636</v>
+        <v>0.0005973635707050562</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1286326647</v>
+        <v>0.128632664680481</v>
       </c>
       <c r="H9" t="n">
-        <v>5.5760478973</v>
+        <v>5.576047897338867</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0202691611</v>
+        <v>0.02026916109025478</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0012247913</v>
+        <v>0.001224791281856596</v>
       </c>
       <c r="K9" t="n">
-        <v>0.21361655</v>
+        <v>0.2136165499687195</v>
       </c>
       <c r="L9" t="n">
-        <v>15.4487743378</v>
+        <v>15.44877433776855</v>
       </c>
       <c r="M9" t="n">
-        <v>0.07884697447926826</v>
+        <v>0.07884697447686068</v>
       </c>
       <c r="N9" t="n">
-        <v>0.01287685121707795</v>
+        <v>0.01287685121621131</v>
       </c>
       <c r="O9" t="n">
-        <v>0.4114982796</v>
+        <v>0.411498279662581</v>
       </c>
       <c r="P9" t="n">
-        <v>0.01728747946151816</v>
+        <v>0.0172874794609863</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.1605079840719512</v>
+        <v>0.1605079840712832</v>
       </c>
       <c r="R9" t="n">
-        <v>0.05023175888492717</v>
+        <v>0.05023175888311127</v>
       </c>
       <c r="S9" t="n">
-        <v>0.7139985288000004</v>
+        <v>0.7139985287608255</v>
       </c>
       <c r="T9" t="n">
-        <v>0.03596477612957339</v>
+        <v>0.0359647761295875</v>
       </c>
       <c r="U9" t="n">
-        <v>0.08716595563780488</v>
+        <v>0.08716595563884409</v>
       </c>
       <c r="V9" t="n">
-        <v>0.01496847207208757</v>
+        <v>0.01496847207211584</v>
       </c>
       <c r="W9" t="n">
-        <v>0.3835942318000001</v>
+        <v>0.3835942318235954</v>
       </c>
       <c r="X9" t="n">
-        <v>0.01165184235036939</v>
+        <v>0.01165184235061203</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.1450732816231708</v>
+        <v>0.1450732816236311</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.04473400243247172</v>
+        <v>0.04473400242859393</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.5925138695000003</v>
+        <v>0.5925138694909009</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.02001947179550313</v>
+        <v>0.02001947179562555</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.05838804765240856</v>
+        <v>0.05838804765073896</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.005924379451383016</v>
+        <v>0.005924379451146375</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.4114982796</v>
+        <v>0.411498279662581</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.01177094123307892</v>
+        <v>0.01177094123273964</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.09451444798247101</v>
+        <v>0.0945144479825465</v>
       </c>
       <c r="AH9" t="n">
-        <v>0.01382347862002063</v>
+        <v>0.01382347861959576</v>
       </c>
       <c r="AI9" t="n">
-        <v>0.7139985288000004</v>
+        <v>0.7139985287608255</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0.01915437010977085</v>
+        <v>0.01915437010979304</v>
       </c>
     </row>
     <row r="10">
@@ -1335,100 +1335,100 @@
         <v>128</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0167297628</v>
+        <v>0.01672976277768612</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0005973636</v>
+        <v>0.0005973635707050562</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1286326647</v>
+        <v>0.128632664680481</v>
       </c>
       <c r="H10" t="n">
-        <v>5.5760478973</v>
+        <v>5.576047897338867</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0202691611</v>
+        <v>0.02026916109025478</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0012247913</v>
+        <v>0.001224791281856596</v>
       </c>
       <c r="K10" t="n">
-        <v>0.21361655</v>
+        <v>0.2136165499687195</v>
       </c>
       <c r="L10" t="n">
-        <v>15.4487743378</v>
+        <v>15.44877433776855</v>
       </c>
       <c r="M10" t="n">
-        <v>0.07884697447926826</v>
+        <v>0.07884697447686068</v>
       </c>
       <c r="N10" t="n">
-        <v>0.01287685121707795</v>
+        <v>0.01287685121621131</v>
       </c>
       <c r="O10" t="n">
-        <v>0.4114982796</v>
+        <v>0.411498279662581</v>
       </c>
       <c r="P10" t="n">
-        <v>0.01728747946151816</v>
+        <v>0.0172874794609863</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.1605079840719512</v>
+        <v>0.1605079840712832</v>
       </c>
       <c r="R10" t="n">
-        <v>0.05023175888492717</v>
+        <v>0.05023175888311127</v>
       </c>
       <c r="S10" t="n">
-        <v>0.7139985288000004</v>
+        <v>0.7139985287608255</v>
       </c>
       <c r="T10" t="n">
-        <v>0.03596477612957339</v>
+        <v>0.0359647761295875</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08716595563780488</v>
+        <v>0.08716595563884409</v>
       </c>
       <c r="V10" t="n">
-        <v>0.01496847207208757</v>
+        <v>0.01496847207211584</v>
       </c>
       <c r="W10" t="n">
-        <v>0.3835942318000001</v>
+        <v>0.3835942318235954</v>
       </c>
       <c r="X10" t="n">
-        <v>0.01165184235036939</v>
+        <v>0.01165184235061203</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.1450732816231708</v>
+        <v>0.1450732816236311</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.04473400243247172</v>
+        <v>0.04473400242859393</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.5925138695000003</v>
+        <v>0.5925138694909009</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.02001947179550313</v>
+        <v>0.02001947179562555</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.05838804765240856</v>
+        <v>0.05838804765073896</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.005924379451383016</v>
+        <v>0.005924379451146375</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.4114982796</v>
+        <v>0.411498279662581</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.01177094123307892</v>
+        <v>0.01177094123273964</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.09451444798247101</v>
+        <v>0.0945144479825465</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.01382347862002063</v>
+        <v>0.01382347861959576</v>
       </c>
       <c r="AI10" t="n">
-        <v>0.7139985288000004</v>
+        <v>0.7139985287608255</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0.01915437010977085</v>
+        <v>0.01915437010979304</v>
       </c>
     </row>
     <row r="11">
@@ -1447,100 +1447,100 @@
         <v>160</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0167297628</v>
+        <v>0.01672976277768612</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0005973636</v>
+        <v>0.0005973635707050562</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1286326647</v>
+        <v>0.128632664680481</v>
       </c>
       <c r="H11" t="n">
-        <v>5.5760478973</v>
+        <v>5.576047897338867</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0202691611</v>
+        <v>0.02026916109025478</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0012247913</v>
+        <v>0.001224791281856596</v>
       </c>
       <c r="K11" t="n">
-        <v>0.21361655</v>
+        <v>0.2136165499687195</v>
       </c>
       <c r="L11" t="n">
-        <v>15.4487743378</v>
+        <v>15.44877433776855</v>
       </c>
       <c r="M11" t="n">
-        <v>0.07884697447926826</v>
+        <v>0.07884697447686068</v>
       </c>
       <c r="N11" t="n">
-        <v>0.01287685121707795</v>
+        <v>0.01287685121621131</v>
       </c>
       <c r="O11" t="n">
-        <v>0.4114982796</v>
+        <v>0.411498279662581</v>
       </c>
       <c r="P11" t="n">
-        <v>0.01728747946151816</v>
+        <v>0.0172874794609863</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.1605079840719512</v>
+        <v>0.1605079840712832</v>
       </c>
       <c r="R11" t="n">
-        <v>0.05023175888492717</v>
+        <v>0.05023175888311127</v>
       </c>
       <c r="S11" t="n">
-        <v>0.7139985288000004</v>
+        <v>0.7139985287608255</v>
       </c>
       <c r="T11" t="n">
-        <v>0.03596477612957339</v>
+        <v>0.0359647761295875</v>
       </c>
       <c r="U11" t="n">
-        <v>0.08716595563780488</v>
+        <v>0.08716595563884409</v>
       </c>
       <c r="V11" t="n">
-        <v>0.01496847207208757</v>
+        <v>0.01496847207211584</v>
       </c>
       <c r="W11" t="n">
-        <v>0.3835942318000001</v>
+        <v>0.3835942318235954</v>
       </c>
       <c r="X11" t="n">
-        <v>0.01165184235036939</v>
+        <v>0.01165184235061203</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.1450732816231708</v>
+        <v>0.1450732816236311</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.04473400243247172</v>
+        <v>0.04473400242859393</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.5925138695000003</v>
+        <v>0.5925138694909009</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.02001947179550313</v>
+        <v>0.02001947179562555</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.05838804765240856</v>
+        <v>0.05838804765073896</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.005924379451383016</v>
+        <v>0.005924379451146375</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.4114982796</v>
+        <v>0.411498279662581</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.01177094123307892</v>
+        <v>0.01177094123273964</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.09451444798247101</v>
+        <v>0.0945144479825465</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.01382347862002063</v>
+        <v>0.01382347861959576</v>
       </c>
       <c r="AI11" t="n">
-        <v>0.7139985288000004</v>
+        <v>0.7139985287608255</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0.01915437010977085</v>
+        <v>0.01915437010979304</v>
       </c>
     </row>
     <row r="12">
@@ -1559,100 +1559,100 @@
         <v>192</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0167297628</v>
+        <v>0.01672976277768612</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0005973636</v>
+        <v>0.0005973635707050562</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1286326647</v>
+        <v>0.128632664680481</v>
       </c>
       <c r="H12" t="n">
-        <v>5.5760478973</v>
+        <v>5.576047897338867</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0202691611</v>
+        <v>0.02026916109025478</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0012247913</v>
+        <v>0.001224791281856596</v>
       </c>
       <c r="K12" t="n">
-        <v>0.21361655</v>
+        <v>0.2136165499687195</v>
       </c>
       <c r="L12" t="n">
-        <v>15.4487743378</v>
+        <v>15.44877433776855</v>
       </c>
       <c r="M12" t="n">
-        <v>0.07884697447926826</v>
+        <v>0.07884697447686068</v>
       </c>
       <c r="N12" t="n">
-        <v>0.01287685121707795</v>
+        <v>0.01287685121621131</v>
       </c>
       <c r="O12" t="n">
-        <v>0.4114982796</v>
+        <v>0.411498279662581</v>
       </c>
       <c r="P12" t="n">
-        <v>0.01728747946151816</v>
+        <v>0.0172874794609863</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.1605079840719512</v>
+        <v>0.1605079840712832</v>
       </c>
       <c r="R12" t="n">
-        <v>0.05023175888492717</v>
+        <v>0.05023175888311127</v>
       </c>
       <c r="S12" t="n">
-        <v>0.7139985288000004</v>
+        <v>0.7139985287608255</v>
       </c>
       <c r="T12" t="n">
-        <v>0.03596477612957339</v>
+        <v>0.0359647761295875</v>
       </c>
       <c r="U12" t="n">
-        <v>0.08716595563780488</v>
+        <v>0.08716595563884409</v>
       </c>
       <c r="V12" t="n">
-        <v>0.01496847207208757</v>
+        <v>0.01496847207211584</v>
       </c>
       <c r="W12" t="n">
-        <v>0.3835942318000001</v>
+        <v>0.3835942318235954</v>
       </c>
       <c r="X12" t="n">
-        <v>0.01165184235036939</v>
+        <v>0.01165184235061203</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.1450732816231708</v>
+        <v>0.1450732816236311</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.04473400243247172</v>
+        <v>0.04473400242859393</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.5925138695000003</v>
+        <v>0.5925138694909009</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.02001947179550313</v>
+        <v>0.02001947179562555</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.05838804765240856</v>
+        <v>0.05838804765073896</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.005924379451383016</v>
+        <v>0.005924379451146375</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.4114982796</v>
+        <v>0.411498279662581</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.01177094123307892</v>
+        <v>0.01177094123273964</v>
       </c>
       <c r="AG12" t="n">
-        <v>0.09451444798247101</v>
+        <v>0.0945144479825465</v>
       </c>
       <c r="AH12" t="n">
-        <v>0.01382347862002063</v>
+        <v>0.01382347861959576</v>
       </c>
       <c r="AI12" t="n">
-        <v>0.7139985288000004</v>
+        <v>0.7139985287608255</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0.01915437010977085</v>
+        <v>0.01915437010979304</v>
       </c>
     </row>
     <row r="13">
@@ -1671,100 +1671,100 @@
         <v>8</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0133731663</v>
+        <v>0.01337316632270813</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0003297038</v>
+        <v>0.0003297038492746651</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0705084503</v>
+        <v>0.0705084502696991</v>
       </c>
       <c r="H13" t="n">
-        <v>4.4728221893</v>
+        <v>4.472822189331055</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0161092225</v>
+        <v>0.01610922254621983</v>
       </c>
       <c r="J13" t="n">
-        <v>0.0006258641</v>
+        <v>0.0006258641369640827</v>
       </c>
       <c r="K13" t="n">
-        <v>0.1149213836</v>
+        <v>0.1149213835597038</v>
       </c>
       <c r="L13" t="n">
-        <v>10.9547586441</v>
+        <v>10.954758644104</v>
       </c>
       <c r="M13" t="n">
-        <v>0.06415445413414639</v>
+        <v>0.06415445413197338</v>
       </c>
       <c r="N13" t="n">
-        <v>0.009447591003532249</v>
+        <v>0.009447591003709748</v>
       </c>
       <c r="O13" t="n">
-        <v>0.3654688038000007</v>
+        <v>0.3654688038412957</v>
       </c>
       <c r="P13" t="n">
-        <v>0.01394420989173954</v>
+        <v>0.01394420989125365</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.08755110862560975</v>
+        <v>0.08755110862919062</v>
       </c>
       <c r="R13" t="n">
-        <v>0.01657376566824368</v>
+        <v>0.01657376566967881</v>
       </c>
       <c r="S13" t="n">
-        <v>0.4652860927000004</v>
+        <v>0.4652860927473768</v>
       </c>
       <c r="T13" t="n">
-        <v>0.01870106548129746</v>
+        <v>0.01870106548192262</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08445336057439033</v>
+        <v>0.08445336057550232</v>
       </c>
       <c r="V13" t="n">
-        <v>0.01290300276117084</v>
+        <v>0.01290300276046607</v>
       </c>
       <c r="W13" t="n">
-        <v>0.3747249492000009</v>
+        <v>0.3747249491103162</v>
       </c>
       <c r="X13" t="n">
-        <v>0.01134586664973289</v>
+        <v>0.01134586665004292</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.09477315330731707</v>
+        <v>0.09477315330648393</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.0157270575948812</v>
+        <v>0.01572705759387058</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.3871012461000003</v>
+        <v>0.3871012460546694</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.01281672030241196</v>
+        <v>0.01281672030253679</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.06429464883345229</v>
+        <v>0.06429464883189195</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.006999984484719411</v>
+        <v>0.006999984484625629</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.3788710042000005</v>
+        <v>0.3788710042810095</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.0130101605764533</v>
+        <v>0.01301016057613373</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.0944586315177966</v>
+        <v>0.09445863151670565</v>
       </c>
       <c r="AH13" t="n">
-        <v>0.01260291486900789</v>
+        <v>0.01260291486871072</v>
       </c>
       <c r="AI13" t="n">
-        <v>0.4652860927000004</v>
+        <v>0.4652860927473768</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0.01916497242161748</v>
+        <v>0.01916497242138997</v>
       </c>
     </row>
     <row r="14">
@@ -1783,100 +1783,100 @@
         <v>16</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0139779011</v>
+        <v>0.01397790107876062</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0003359989</v>
+        <v>0.0003359989495947957</v>
       </c>
       <c r="G14" t="n">
-        <v>0.075173974</v>
+        <v>0.07517397403717041</v>
       </c>
       <c r="H14" t="n">
-        <v>4.9695177078</v>
+        <v>4.969517707824707</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0161040276</v>
+        <v>0.01610402762889862</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0006301728</v>
+        <v>0.0006301727844402194</v>
       </c>
       <c r="K14" t="n">
-        <v>0.1184016466</v>
+        <v>0.1184016466140747</v>
       </c>
       <c r="L14" t="n">
-        <v>9.908004760700001</v>
+        <v>9.908004760742188</v>
       </c>
       <c r="M14" t="n">
-        <v>0.07157405669756102</v>
+        <v>0.07157405670276351</v>
       </c>
       <c r="N14" t="n">
-        <v>0.0121253960272955</v>
+        <v>0.01212539602925208</v>
       </c>
       <c r="O14" t="n">
-        <v>0.4355399807999998</v>
+        <v>0.4355399808494553</v>
       </c>
       <c r="P14" t="n">
-        <v>0.01549018929571357</v>
+        <v>0.01549018929677289</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.1506148589512195</v>
+        <v>0.1506148589472821</v>
       </c>
       <c r="R14" t="n">
-        <v>0.03448037149367015</v>
+        <v>0.03448037149267898</v>
       </c>
       <c r="S14" t="n">
-        <v>0.5616407557</v>
+        <v>0.56164075569734</v>
       </c>
       <c r="T14" t="n">
-        <v>0.03165386657730296</v>
+        <v>0.03165386657650122</v>
       </c>
       <c r="U14" t="n">
-        <v>0.08777192008902443</v>
+        <v>0.08777192009466926</v>
       </c>
       <c r="V14" t="n">
-        <v>0.01364131792583653</v>
+        <v>0.01364131792553938</v>
       </c>
       <c r="W14" t="n">
-        <v>0.3737106992000001</v>
+        <v>0.373710699135529</v>
       </c>
       <c r="X14" t="n">
-        <v>0.011970208186411</v>
+        <v>0.01197020818717744</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.1103958587743903</v>
+        <v>0.1103958587785052</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.0194845833073459</v>
+        <v>0.0194845833082794</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.3882851041999995</v>
+        <v>0.3882851041854281</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.01575385190145025</v>
+        <v>0.01575385190206435</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.07207966997943802</v>
+        <v>0.07207966997916126</v>
       </c>
       <c r="AD14" t="n">
-        <v>0.008488644754515447</v>
+        <v>0.008488644754416566</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.4355399807999998</v>
+        <v>0.4355399808494553</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.01460684574484733</v>
+        <v>0.0146068457447693</v>
       </c>
       <c r="AG14" t="n">
-        <v>0.1744365563063336</v>
+        <v>0.174436556305021</v>
       </c>
       <c r="AH14" t="n">
-        <v>0.03476509457982645</v>
+        <v>0.03476509457924049</v>
       </c>
       <c r="AI14" t="n">
-        <v>0.5616407557</v>
+        <v>0.56164075569734</v>
       </c>
       <c r="AJ14" t="n">
-        <v>0.03546868867840823</v>
+        <v>0.03546868867813353</v>
       </c>
     </row>
     <row r="15">
@@ -1895,100 +1895,100 @@
         <v>32</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0163849667</v>
+        <v>0.01638496667146683</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0005284802</v>
+        <v>0.0005284801591187716</v>
       </c>
       <c r="G15" t="n">
-        <v>0.09841564300000001</v>
+        <v>0.09841564297676086</v>
       </c>
       <c r="H15" t="n">
-        <v>5.693295002</v>
+        <v>5.693295001983643</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0160490219</v>
+        <v>0.01604902185499668</v>
       </c>
       <c r="J15" t="n">
-        <v>0.0007151701</v>
+        <v>0.0007151700556278229</v>
       </c>
       <c r="K15" t="n">
-        <v>0.184238553</v>
+        <v>0.1842385530471802</v>
       </c>
       <c r="L15" t="n">
-        <v>9.3313589096</v>
+        <v>9.331358909606934</v>
       </c>
       <c r="M15" t="n">
-        <v>0.0881262297195122</v>
+        <v>0.08812622971335458</v>
       </c>
       <c r="N15" t="n">
-        <v>0.01457367738365684</v>
+        <v>0.01457367738234882</v>
       </c>
       <c r="O15" t="n">
-        <v>0.4559204911000005</v>
+        <v>0.4559204911504651</v>
       </c>
       <c r="P15" t="n">
-        <v>0.01888170995468788</v>
+        <v>0.01888170995338849</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.2029846950658536</v>
+        <v>0.2029846950668238</v>
       </c>
       <c r="R15" t="n">
-        <v>0.06804415368449082</v>
+        <v>0.06804415368597225</v>
       </c>
       <c r="S15" t="n">
-        <v>0.8445926571999998</v>
+        <v>0.8445926572105691</v>
       </c>
       <c r="T15" t="n">
-        <v>0.04271872389051809</v>
+        <v>0.04271872389057526</v>
       </c>
       <c r="U15" t="n">
-        <v>0.09569090934634153</v>
+        <v>0.09569090933863611</v>
       </c>
       <c r="V15" t="n">
-        <v>0.01560611036541783</v>
+        <v>0.01560611036443903</v>
       </c>
       <c r="W15" t="n">
-        <v>0.3696649158999996</v>
+        <v>0.3696649158078174</v>
       </c>
       <c r="X15" t="n">
-        <v>0.0132350432770909</v>
+        <v>0.01323504327620083</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.1404023907012195</v>
+        <v>0.1404023907115467</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.03097439142080136</v>
+        <v>0.03097439142354138</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.5054114103000007</v>
+        <v>0.505411410214208</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.02091202943279954</v>
+        <v>0.02091202943410407</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.0894850910205174</v>
+        <v>0.08948509101872841</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.01192189727920072</v>
+        <v>0.01192189727892711</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.4559204911000005</v>
+        <v>0.4559204911504651</v>
       </c>
       <c r="AF15" t="n">
-        <v>0.01815295332705855</v>
+        <v>0.01815295332671084</v>
       </c>
       <c r="AG15" t="n">
-        <v>0.2380534174788582</v>
+        <v>0.2380534174787363</v>
       </c>
       <c r="AH15" t="n">
-        <v>0.06174187918323878</v>
+        <v>0.06174187918300145</v>
       </c>
       <c r="AI15" t="n">
-        <v>0.8445926571999998</v>
+        <v>0.8445926572105691</v>
       </c>
       <c r="AJ15" t="n">
-        <v>0.04841456807692084</v>
+        <v>0.04841456807686287</v>
       </c>
     </row>
     <row r="16">
@@ -2007,100 +2007,100 @@
         <v>64</v>
       </c>
       <c r="E16" t="n">
-        <v>0.016128419</v>
+        <v>0.0161284189671278</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0004814806</v>
+        <v>0.0004814805870410055</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1197805703</v>
+        <v>0.119780570268631</v>
       </c>
       <c r="H16" t="n">
-        <v>5.509534359</v>
+        <v>5.509534358978271</v>
       </c>
       <c r="I16" t="n">
-        <v>0.0144391786</v>
+        <v>0.01443917863070965</v>
       </c>
       <c r="J16" t="n">
-        <v>0.0006140807000000001</v>
+        <v>0.0006140806945040822</v>
       </c>
       <c r="K16" t="n">
-        <v>0.1911295056</v>
+        <v>0.1911295056343079</v>
       </c>
       <c r="L16" t="n">
-        <v>9.399444580100001</v>
+        <v>9.399444580078125</v>
       </c>
       <c r="M16" t="n">
-        <v>0.07191870340487812</v>
+        <v>0.07191870340402418</v>
       </c>
       <c r="N16" t="n">
-        <v>0.01063194548510473</v>
+        <v>0.01063194548461023</v>
       </c>
       <c r="O16" t="n">
-        <v>0.4169213220000003</v>
+        <v>0.4169213220043133</v>
       </c>
       <c r="P16" t="n">
-        <v>0.01559925568005462</v>
+        <v>0.01559925567961069</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.1315974205902438</v>
+        <v>0.1315974205889689</v>
       </c>
       <c r="R16" t="n">
-        <v>0.03663160688774393</v>
+        <v>0.03663160688657306</v>
       </c>
       <c r="S16" t="n">
-        <v>0.7171078413999998</v>
+        <v>0.7171078413432639</v>
       </c>
       <c r="T16" t="n">
-        <v>0.02844434085103505</v>
+        <v>0.02844434085061892</v>
       </c>
       <c r="U16" t="n">
-        <v>0.09218469841219515</v>
+        <v>0.09218469841365902</v>
       </c>
       <c r="V16" t="n">
-        <v>0.01536120270331543</v>
+        <v>0.01536120270372333</v>
       </c>
       <c r="W16" t="n">
-        <v>0.3627195126</v>
+        <v>0.3627195125871499</v>
       </c>
       <c r="X16" t="n">
-        <v>0.01222886000875593</v>
+        <v>0.01222886000918384</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.129228602385366</v>
+        <v>0.1292286023869054</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.03237733123002926</v>
+        <v>0.03237733122898379</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.6193150134000014</v>
+        <v>0.619315013364627</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.01761379325005694</v>
+        <v>0.01761379325041571</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.06214801837876895</v>
+        <v>0.06214801837723533</v>
       </c>
       <c r="AD16" t="n">
-        <v>0.00661116642763351</v>
+        <v>0.006611166427372563</v>
       </c>
       <c r="AE16" t="n">
-        <v>0.4169213220000003</v>
+        <v>0.4169213220043133</v>
       </c>
       <c r="AF16" t="n">
-        <v>0.01253279821558685</v>
+        <v>0.01253279821526487</v>
       </c>
       <c r="AG16" t="n">
-        <v>0.1184550346295272</v>
+        <v>0.1184550346287221</v>
       </c>
       <c r="AH16" t="n">
-        <v>0.018418063699014</v>
+        <v>0.01841806369843759</v>
       </c>
       <c r="AI16" t="n">
-        <v>0.7171078413999998</v>
+        <v>0.7171078413432639</v>
       </c>
       <c r="AJ16" t="n">
-        <v>0.02401066853819914</v>
+        <v>0.02401066853803818</v>
       </c>
     </row>
     <row r="17">
@@ -2119,100 +2119,100 @@
         <v>96</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0156009421</v>
+        <v>0.01560094207525253</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0004608427</v>
+        <v>0.0004608427407220006</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1043666601</v>
+        <v>0.104366660118103</v>
       </c>
       <c r="H17" t="n">
-        <v>5.124080658</v>
+        <v>5.124080657958984</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0176935457</v>
+        <v>0.01769354566931725</v>
       </c>
       <c r="J17" t="n">
-        <v>0.0008234218</v>
+        <v>0.0008234218112193048</v>
       </c>
       <c r="K17" t="n">
-        <v>0.1814232469</v>
+        <v>0.1814232468605042</v>
       </c>
       <c r="L17" t="n">
-        <v>10.2919788361</v>
+        <v>10.29197883605957</v>
       </c>
       <c r="M17" t="n">
-        <v>0.06972812875365858</v>
+        <v>0.06972812874863166</v>
       </c>
       <c r="N17" t="n">
-        <v>0.009771366216927322</v>
+        <v>0.009771366216836512</v>
       </c>
       <c r="O17" t="n">
-        <v>0.3854595189000003</v>
+        <v>0.3854595189157664</v>
       </c>
       <c r="P17" t="n">
-        <v>0.01503062334450237</v>
+        <v>0.01503062334342255</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.1619167213865854</v>
+        <v>0.1619167213833106</v>
       </c>
       <c r="R17" t="n">
-        <v>0.04686884186375229</v>
+        <v>0.04686884186255702</v>
       </c>
       <c r="S17" t="n">
-        <v>0.7275798545000001</v>
+        <v>0.727579854447427</v>
       </c>
       <c r="T17" t="n">
-        <v>0.0337516858674537</v>
+        <v>0.03375168586663226</v>
       </c>
       <c r="U17" t="n">
-        <v>0.0889451892963415</v>
+        <v>0.08894518929306425</v>
       </c>
       <c r="V17" t="n">
-        <v>0.01562274248830209</v>
+        <v>0.01562274248793018</v>
       </c>
       <c r="W17" t="n">
-        <v>0.4059444062999997</v>
+        <v>0.4059444062766033</v>
       </c>
       <c r="X17" t="n">
-        <v>0.01176639508611495</v>
+        <v>0.0117663950857959</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.1653723568646341</v>
+        <v>0.1653723568592575</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.0373465119626022</v>
+        <v>0.03734651196045108</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.5037117817999999</v>
+        <v>0.5037117817785486</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.0217546209504547</v>
+        <v>0.02175462094984761</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.06291572077720788</v>
+        <v>0.06291572077541022</v>
       </c>
       <c r="AD17" t="n">
-        <v>0.006713161657863249</v>
+        <v>0.006713161657623964</v>
       </c>
       <c r="AE17" t="n">
-        <v>0.4059444062999997</v>
+        <v>0.4059444062766033</v>
       </c>
       <c r="AF17" t="n">
-        <v>0.01268544531094559</v>
+        <v>0.01268544531058852</v>
       </c>
       <c r="AG17" t="n">
-        <v>0.1689132916342997</v>
+        <v>0.168913291633828</v>
       </c>
       <c r="AH17" t="n">
-        <v>0.03290246386808257</v>
+        <v>0.0329024638678106</v>
       </c>
       <c r="AI17" t="n">
-        <v>0.7275798545000001</v>
+        <v>0.727579854447427</v>
       </c>
       <c r="AJ17" t="n">
-        <v>0.03414821173065997</v>
+        <v>0.03414821173054348</v>
       </c>
     </row>
     <row r="18">
@@ -2231,100 +2231,100 @@
         <v>128</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0156009421</v>
+        <v>0.01560094207525253</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0004608427</v>
+        <v>0.0004608427407220006</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1043666601</v>
+        <v>0.104366660118103</v>
       </c>
       <c r="H18" t="n">
-        <v>5.124080658</v>
+        <v>5.124080657958984</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0176935457</v>
+        <v>0.01769354566931725</v>
       </c>
       <c r="J18" t="n">
-        <v>0.0008234218</v>
+        <v>0.0008234218112193048</v>
       </c>
       <c r="K18" t="n">
-        <v>0.1814232469</v>
+        <v>0.1814232468605042</v>
       </c>
       <c r="L18" t="n">
-        <v>10.2919788361</v>
+        <v>10.29197883605957</v>
       </c>
       <c r="M18" t="n">
-        <v>0.06972812875365858</v>
+        <v>0.06972812874863166</v>
       </c>
       <c r="N18" t="n">
-        <v>0.009771366216927322</v>
+        <v>0.009771366216836512</v>
       </c>
       <c r="O18" t="n">
-        <v>0.3854595189000003</v>
+        <v>0.3854595189157664</v>
       </c>
       <c r="P18" t="n">
-        <v>0.01503062334450237</v>
+        <v>0.01503062334342255</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.1619167213865854</v>
+        <v>0.1619167213833106</v>
       </c>
       <c r="R18" t="n">
-        <v>0.04686884186375229</v>
+        <v>0.04686884186255702</v>
       </c>
       <c r="S18" t="n">
-        <v>0.7275798545000001</v>
+        <v>0.727579854447427</v>
       </c>
       <c r="T18" t="n">
-        <v>0.0337516858674537</v>
+        <v>0.03375168586663226</v>
       </c>
       <c r="U18" t="n">
-        <v>0.0889451892963415</v>
+        <v>0.08894518929306425</v>
       </c>
       <c r="V18" t="n">
-        <v>0.01562274248830209</v>
+        <v>0.01562274248793018</v>
       </c>
       <c r="W18" t="n">
-        <v>0.4059444062999997</v>
+        <v>0.4059444062766033</v>
       </c>
       <c r="X18" t="n">
-        <v>0.01176639508611495</v>
+        <v>0.0117663950857959</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.1653723568646341</v>
+        <v>0.1653723568592575</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.0373465119626022</v>
+        <v>0.03734651196045108</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.5037117817999999</v>
+        <v>0.5037117817785486</v>
       </c>
       <c r="AB18" t="n">
-        <v>0.0217546209504547</v>
+        <v>0.02175462094984761</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.06291572077720788</v>
+        <v>0.06291572077541022</v>
       </c>
       <c r="AD18" t="n">
-        <v>0.006713161657863249</v>
+        <v>0.006713161657623964</v>
       </c>
       <c r="AE18" t="n">
-        <v>0.4059444062999997</v>
+        <v>0.4059444062766033</v>
       </c>
       <c r="AF18" t="n">
-        <v>0.01268544531094559</v>
+        <v>0.01268544531058852</v>
       </c>
       <c r="AG18" t="n">
-        <v>0.1689132916342997</v>
+        <v>0.168913291633828</v>
       </c>
       <c r="AH18" t="n">
-        <v>0.03290246386808257</v>
+        <v>0.0329024638678106</v>
       </c>
       <c r="AI18" t="n">
-        <v>0.7275798545000001</v>
+        <v>0.727579854447427</v>
       </c>
       <c r="AJ18" t="n">
-        <v>0.03414821173065997</v>
+        <v>0.03414821173054348</v>
       </c>
     </row>
     <row r="19">
@@ -2343,100 +2343,100 @@
         <v>160</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0156009421</v>
+        <v>0.01560094207525253</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0004608427</v>
+        <v>0.0004608427407220006</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1043666601</v>
+        <v>0.104366660118103</v>
       </c>
       <c r="H19" t="n">
-        <v>5.124080658</v>
+        <v>5.124080657958984</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0176935457</v>
+        <v>0.01769354566931725</v>
       </c>
       <c r="J19" t="n">
-        <v>0.0008234218</v>
+        <v>0.0008234218112193048</v>
       </c>
       <c r="K19" t="n">
-        <v>0.1814232469</v>
+        <v>0.1814232468605042</v>
       </c>
       <c r="L19" t="n">
-        <v>10.2919788361</v>
+        <v>10.29197883605957</v>
       </c>
       <c r="M19" t="n">
-        <v>0.06972812875365858</v>
+        <v>0.06972812874863166</v>
       </c>
       <c r="N19" t="n">
-        <v>0.009771366216927322</v>
+        <v>0.009771366216836512</v>
       </c>
       <c r="O19" t="n">
-        <v>0.3854595189000003</v>
+        <v>0.3854595189157664</v>
       </c>
       <c r="P19" t="n">
-        <v>0.01503062334450237</v>
+        <v>0.01503062334342255</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.1619167213865854</v>
+        <v>0.1619167213833106</v>
       </c>
       <c r="R19" t="n">
-        <v>0.04686884186375229</v>
+        <v>0.04686884186255702</v>
       </c>
       <c r="S19" t="n">
-        <v>0.7275798545000001</v>
+        <v>0.727579854447427</v>
       </c>
       <c r="T19" t="n">
-        <v>0.0337516858674537</v>
+        <v>0.03375168586663226</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0889451892963415</v>
+        <v>0.08894518929306425</v>
       </c>
       <c r="V19" t="n">
-        <v>0.01562274248830209</v>
+        <v>0.01562274248793018</v>
       </c>
       <c r="W19" t="n">
-        <v>0.4059444062999997</v>
+        <v>0.4059444062766033</v>
       </c>
       <c r="X19" t="n">
-        <v>0.01176639508611495</v>
+        <v>0.0117663950857959</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.1653723568646341</v>
+        <v>0.1653723568592575</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.0373465119626022</v>
+        <v>0.03734651196045108</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.5037117817999999</v>
+        <v>0.5037117817785486</v>
       </c>
       <c r="AB19" t="n">
-        <v>0.0217546209504547</v>
+        <v>0.02175462094984761</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.06291572077720788</v>
+        <v>0.06291572077541022</v>
       </c>
       <c r="AD19" t="n">
-        <v>0.006713161657863249</v>
+        <v>0.006713161657623964</v>
       </c>
       <c r="AE19" t="n">
-        <v>0.4059444062999997</v>
+        <v>0.4059444062766033</v>
       </c>
       <c r="AF19" t="n">
-        <v>0.01268544531094559</v>
+        <v>0.01268544531058852</v>
       </c>
       <c r="AG19" t="n">
-        <v>0.1689132916342997</v>
+        <v>0.168913291633828</v>
       </c>
       <c r="AH19" t="n">
-        <v>0.03290246386808257</v>
+        <v>0.0329024638678106</v>
       </c>
       <c r="AI19" t="n">
-        <v>0.7275798545000001</v>
+        <v>0.727579854447427</v>
       </c>
       <c r="AJ19" t="n">
-        <v>0.03414821173065997</v>
+        <v>0.03414821173054348</v>
       </c>
     </row>
     <row r="20">
@@ -2455,100 +2455,100 @@
         <v>192</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0156009421</v>
+        <v>0.01560094207525253</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0004608427</v>
+        <v>0.0004608427407220006</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1043666601</v>
+        <v>0.104366660118103</v>
       </c>
       <c r="H20" t="n">
-        <v>5.124080658</v>
+        <v>5.124080657958984</v>
       </c>
       <c r="I20" t="n">
-        <v>0.0176935457</v>
+        <v>0.01769354566931725</v>
       </c>
       <c r="J20" t="n">
-        <v>0.0008234218</v>
+        <v>0.0008234218112193048</v>
       </c>
       <c r="K20" t="n">
-        <v>0.1814232469</v>
+        <v>0.1814232468605042</v>
       </c>
       <c r="L20" t="n">
-        <v>10.2919788361</v>
+        <v>10.29197883605957</v>
       </c>
       <c r="M20" t="n">
-        <v>0.06972812875365858</v>
+        <v>0.06972812874863166</v>
       </c>
       <c r="N20" t="n">
-        <v>0.009771366216927322</v>
+        <v>0.009771366216836512</v>
       </c>
       <c r="O20" t="n">
-        <v>0.3854595189000003</v>
+        <v>0.3854595189157664</v>
       </c>
       <c r="P20" t="n">
-        <v>0.01503062334450237</v>
+        <v>0.01503062334342255</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.1619167213865854</v>
+        <v>0.1619167213833106</v>
       </c>
       <c r="R20" t="n">
-        <v>0.04686884186375229</v>
+        <v>0.04686884186255702</v>
       </c>
       <c r="S20" t="n">
-        <v>0.7275798545000001</v>
+        <v>0.727579854447427</v>
       </c>
       <c r="T20" t="n">
-        <v>0.0337516858674537</v>
+        <v>0.03375168586663226</v>
       </c>
       <c r="U20" t="n">
-        <v>0.0889451892963415</v>
+        <v>0.08894518929306425</v>
       </c>
       <c r="V20" t="n">
-        <v>0.01562274248830209</v>
+        <v>0.01562274248793018</v>
       </c>
       <c r="W20" t="n">
-        <v>0.4059444062999997</v>
+        <v>0.4059444062766033</v>
       </c>
       <c r="X20" t="n">
-        <v>0.01176639508611495</v>
+        <v>0.0117663950857959</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.1653723568646341</v>
+        <v>0.1653723568592575</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.0373465119626022</v>
+        <v>0.03734651196045108</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.5037117817999999</v>
+        <v>0.5037117817785486</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.0217546209504547</v>
+        <v>0.02175462094984761</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.06291572077720788</v>
+        <v>0.06291572077541022</v>
       </c>
       <c r="AD20" t="n">
-        <v>0.006713161657863249</v>
+        <v>0.006713161657623964</v>
       </c>
       <c r="AE20" t="n">
-        <v>0.4059444062999997</v>
+        <v>0.4059444062766033</v>
       </c>
       <c r="AF20" t="n">
-        <v>0.01268544531094559</v>
+        <v>0.01268544531058852</v>
       </c>
       <c r="AG20" t="n">
-        <v>0.1689132916342997</v>
+        <v>0.168913291633828</v>
       </c>
       <c r="AH20" t="n">
-        <v>0.03290246386808257</v>
+        <v>0.0329024638678106</v>
       </c>
       <c r="AI20" t="n">
-        <v>0.7275798545000001</v>
+        <v>0.727579854447427</v>
       </c>
       <c r="AJ20" t="n">
-        <v>0.03414821173065997</v>
+        <v>0.03414821173054348</v>
       </c>
     </row>
     <row r="21">
@@ -2567,100 +2567,100 @@
         <v>8</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0163979605</v>
+        <v>0.01639796048402786</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0004874809</v>
+        <v>0.0004874809237662703</v>
       </c>
       <c r="G21" t="n">
-        <v>0.08975988630000001</v>
+        <v>0.08975988626480103</v>
       </c>
       <c r="H21" t="n">
-        <v>5.3523645401</v>
+        <v>5.352364540100098</v>
       </c>
       <c r="I21" t="n">
-        <v>0.025072882</v>
+        <v>0.02507288195192814</v>
       </c>
       <c r="J21" t="n">
-        <v>0.001159436</v>
+        <v>0.001159435953013599</v>
       </c>
       <c r="K21" t="n">
-        <v>0.1779693961</v>
+        <v>0.1779693961143494</v>
       </c>
       <c r="L21" t="n">
-        <v>20.5669727325</v>
+        <v>20.56697273254395</v>
       </c>
       <c r="M21" t="n">
-        <v>0.1565350564353658</v>
+        <v>0.1565350564342589</v>
       </c>
       <c r="N21" t="n">
-        <v>0.03052452684405385</v>
+        <v>0.03052452684327068</v>
       </c>
       <c r="O21" t="n">
-        <v>0.4168915810999998</v>
+        <v>0.4168915810952001</v>
       </c>
       <c r="P21" t="n">
-        <v>0.0346747227460023</v>
+        <v>0.03467472274552569</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.3465829949353658</v>
+        <v>0.3465829949339413</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1330984124407669</v>
+        <v>0.1330984124391706</v>
       </c>
       <c r="S21" t="n">
-        <v>0.7304529961999995</v>
+        <v>0.7304529962158171</v>
       </c>
       <c r="T21" t="n">
-        <v>0.07700011200433809</v>
+        <v>0.07700011200406766</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1427510966402439</v>
+        <v>0.1427510966420858</v>
       </c>
       <c r="V21" t="n">
-        <v>0.02871810134128091</v>
+        <v>0.02871810134086343</v>
       </c>
       <c r="W21" t="n">
-        <v>0.4662453741999997</v>
+        <v>0.4662453741140666</v>
       </c>
       <c r="X21" t="n">
-        <v>0.02036402341278425</v>
+        <v>0.02036402341296036</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.2852039741682926</v>
+        <v>0.2852039741700077</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.09385414423184092</v>
+        <v>0.09385414423466071</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.5909988007999996</v>
+        <v>0.5909988008050959</v>
       </c>
       <c r="AB21" t="n">
-        <v>0.04104123589357481</v>
+        <v>0.04104123589379212</v>
       </c>
       <c r="AC21" t="n">
-        <v>0.1642391750942908</v>
+        <v>0.1642391750949263</v>
       </c>
       <c r="AD21" t="n">
-        <v>0.03204295717521214</v>
+        <v>0.03204295717511681</v>
       </c>
       <c r="AE21" t="n">
-        <v>0.5123871224999998</v>
+        <v>0.5123871224851086</v>
       </c>
       <c r="AF21" t="n">
-        <v>0.03338508958630819</v>
+        <v>0.03338508958641036</v>
       </c>
       <c r="AG21" t="n">
-        <v>0.3643867084596342</v>
+        <v>0.3643867084591742</v>
       </c>
       <c r="AH21" t="n">
-        <v>0.1372493354436198</v>
+        <v>0.1372493354432205</v>
       </c>
       <c r="AI21" t="n">
-        <v>0.7304529961999995</v>
+        <v>0.7304529962158171</v>
       </c>
       <c r="AJ21" t="n">
-        <v>0.07399990029617637</v>
+        <v>0.07399990029606549</v>
       </c>
     </row>
     <row r="22">
@@ -2679,100 +2679,100 @@
         <v>16</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0168364048</v>
+        <v>0.01683640480041504</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0005310225</v>
+        <v>0.0005310224951244891</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1015047431</v>
+        <v>0.1015047430992126</v>
       </c>
       <c r="H22" t="n">
-        <v>5.3089704514</v>
+        <v>5.30897045135498</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0250305645</v>
+        <v>0.02503056451678276</v>
       </c>
       <c r="J22" t="n">
-        <v>0.0011835854</v>
+        <v>0.001183585380204022</v>
       </c>
       <c r="K22" t="n">
-        <v>0.1821590662</v>
+        <v>0.1821590662002563</v>
       </c>
       <c r="L22" t="n">
-        <v>27.5252933502</v>
+        <v>27.52529335021973</v>
       </c>
       <c r="M22" t="n">
-        <v>0.132193325437805</v>
+        <v>0.1321933254349027</v>
       </c>
       <c r="N22" t="n">
-        <v>0.02545683577205598</v>
+        <v>0.0254568357713427</v>
       </c>
       <c r="O22" t="n">
-        <v>0.3887546417000003</v>
+        <v>0.3887546416974601</v>
       </c>
       <c r="P22" t="n">
-        <v>0.03075903610393397</v>
+        <v>0.0307590361034171</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.3896332382121951</v>
+        <v>0.3896332382180223</v>
       </c>
       <c r="R22" t="n">
-        <v>0.2021909272644597</v>
+        <v>0.2021909272682562</v>
       </c>
       <c r="S22" t="n">
-        <v>0.9879666946999994</v>
+        <v>0.9879666946689909</v>
       </c>
       <c r="T22" t="n">
-        <v>0.09160989065946749</v>
+        <v>0.09160989066084101</v>
       </c>
       <c r="U22" t="n">
-        <v>0.09765606372195125</v>
+        <v>0.09765606372449662</v>
       </c>
       <c r="V22" t="n">
-        <v>0.01662266591634597</v>
+        <v>0.01662266591726255</v>
       </c>
       <c r="W22" t="n">
-        <v>0.3989374480999999</v>
+        <v>0.3989374480895265</v>
       </c>
       <c r="X22" t="n">
-        <v>0.01380114625902507</v>
+        <v>0.01380114625944753</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.1769303466695122</v>
+        <v>0.1769303466748584</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.04150729204007163</v>
+        <v>0.04150729204274503</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.4501842635000006</v>
+        <v>0.4501842635046103</v>
       </c>
       <c r="AB22" t="n">
-        <v>0.02643878020173244</v>
+        <v>0.02643878020260659</v>
       </c>
       <c r="AC22" t="n">
-        <v>0.1056755595801962</v>
+        <v>0.1056755595785234</v>
       </c>
       <c r="AD22" t="n">
-        <v>0.01559752529945331</v>
+        <v>0.01559752529901589</v>
       </c>
       <c r="AE22" t="n">
-        <v>0.4521558333</v>
+        <v>0.4521558333489963</v>
       </c>
       <c r="AF22" t="n">
-        <v>0.02157155854038681</v>
+        <v>0.02157155854003553</v>
       </c>
       <c r="AG22" t="n">
-        <v>0.2994363664139161</v>
+        <v>0.2994363664130498</v>
       </c>
       <c r="AH22" t="n">
-        <v>0.09598162869295283</v>
+        <v>0.09598162869231715</v>
       </c>
       <c r="AI22" t="n">
-        <v>0.9879666946999994</v>
+        <v>0.9879666946689909</v>
       </c>
       <c r="AJ22" t="n">
-        <v>0.06125050009640864</v>
+        <v>0.06125050009620783</v>
       </c>
     </row>
     <row r="23">
@@ -2791,100 +2791,100 @@
         <v>32</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0157046411</v>
+        <v>0.01570464111864567</v>
       </c>
       <c r="F23" t="n">
-        <v>0.000453404</v>
+        <v>0.0004534040344879031</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0847632587</v>
+        <v>0.08476325869560242</v>
       </c>
       <c r="H23" t="n">
-        <v>5.1644978523</v>
+        <v>5.164497852325439</v>
       </c>
       <c r="I23" t="n">
-        <v>0.0242538955</v>
+        <v>0.02425389550626278</v>
       </c>
       <c r="J23" t="n">
-        <v>0.0010550168</v>
+        <v>0.001055016764439642</v>
       </c>
       <c r="K23" t="n">
-        <v>0.1642268896</v>
+        <v>0.1642268896102905</v>
       </c>
       <c r="L23" t="n">
-        <v>28.7357273102</v>
+        <v>28.73572731018066</v>
       </c>
       <c r="M23" t="n">
-        <v>0.1255073165621951</v>
+        <v>0.1255073165674659</v>
       </c>
       <c r="N23" t="n">
-        <v>0.02312421512293697</v>
+        <v>0.0231242151231895</v>
       </c>
       <c r="O23" t="n">
-        <v>0.3528713001000003</v>
+        <v>0.3528713001380623</v>
       </c>
       <c r="P23" t="n">
-        <v>0.02926894370721068</v>
+        <v>0.02926894370820082</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.3787418887560975</v>
+        <v>0.3787418887496808</v>
       </c>
       <c r="R23" t="n">
-        <v>0.1945078316783384</v>
+        <v>0.1945078316700612</v>
       </c>
       <c r="S23" t="n">
-        <v>1.021111620799999</v>
+        <v>1.021111620778282</v>
       </c>
       <c r="T23" t="n">
-        <v>0.08956699004332268</v>
+        <v>0.08956699004186909</v>
       </c>
       <c r="U23" t="n">
-        <v>0.09473083611585376</v>
+        <v>0.09473083610853557</v>
       </c>
       <c r="V23" t="n">
-        <v>0.01505713754698794</v>
+        <v>0.01505713754664503</v>
       </c>
       <c r="W23" t="n">
-        <v>0.3528941022000005</v>
+        <v>0.3528941021328933</v>
       </c>
       <c r="X23" t="n">
-        <v>0.01334949650562482</v>
+        <v>0.0133494965049222</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.1370341165317073</v>
+        <v>0.1370341165315703</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.02934145193824368</v>
+        <v>0.02934145193749106</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.3762804616000004</v>
+        <v>0.3762804615978155</v>
       </c>
       <c r="AB23" t="n">
-        <v>0.02178951950795436</v>
+        <v>0.02178951950786411</v>
       </c>
       <c r="AC23" t="n">
-        <v>0.1001322126349242</v>
+        <v>0.1001322126336478</v>
       </c>
       <c r="AD23" t="n">
-        <v>0.01431889305057551</v>
+        <v>0.01431889305023963</v>
       </c>
       <c r="AE23" t="n">
-        <v>0.4493261983000005</v>
+        <v>0.4493261982819376</v>
       </c>
       <c r="AF23" t="n">
-        <v>0.02043877738535883</v>
+        <v>0.02043877738511545</v>
       </c>
       <c r="AG23" t="n">
-        <v>0.2919774082967886</v>
+        <v>0.2919774082960187</v>
       </c>
       <c r="AH23" t="n">
-        <v>0.09192087512171224</v>
+        <v>0.09192087512085258</v>
       </c>
       <c r="AI23" t="n">
-        <v>1.021111620799999</v>
+        <v>1.021111620778282</v>
       </c>
       <c r="AJ23" t="n">
-        <v>0.05986394747074943</v>
+        <v>0.05986394747056945</v>
       </c>
     </row>
     <row r="24">
@@ -2903,100 +2903,100 @@
         <v>64</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0284430701</v>
+        <v>0.02844307012856007</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0016734792</v>
+        <v>0.001673479215241969</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2325986624</v>
+        <v>0.2325986623764038</v>
       </c>
       <c r="H24" t="n">
-        <v>8.9316225052</v>
+        <v>8.931622505187988</v>
       </c>
       <c r="I24" t="n">
-        <v>0.0230130572</v>
+        <v>0.02301305718719959</v>
       </c>
       <c r="J24" t="n">
-        <v>0.0017193903</v>
+        <v>0.001719390274956822</v>
       </c>
       <c r="K24" t="n">
-        <v>0.290583998</v>
+        <v>0.290583997964859</v>
       </c>
       <c r="L24" t="n">
-        <v>21.1653823853</v>
+        <v>21.16538238525391</v>
       </c>
       <c r="M24" t="n">
-        <v>0.1751176375792683</v>
+        <v>0.175117637577536</v>
       </c>
       <c r="N24" t="n">
-        <v>0.04466823105647692</v>
+        <v>0.04466823105599976</v>
       </c>
       <c r="O24" t="n">
-        <v>0.5015959885000001</v>
+        <v>0.5015959885816628</v>
       </c>
       <c r="P24" t="n">
-        <v>0.03713811982641763</v>
+        <v>0.03713811982616966</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.5420544663134147</v>
+        <v>0.542054466314503</v>
       </c>
       <c r="R24" t="n">
-        <v>0.3696025432287715</v>
+        <v>0.3696025432282497</v>
       </c>
       <c r="S24" t="n">
-        <v>1.014305214</v>
+        <v>1.01430521404437</v>
       </c>
       <c r="T24" t="n">
-        <v>0.1135360656501798</v>
+        <v>0.1135360656505288</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1437459940317073</v>
+        <v>0.1437459940377766</v>
       </c>
       <c r="V24" t="n">
-        <v>0.03020988406833277</v>
+        <v>0.03020988406883178</v>
       </c>
       <c r="W24" t="n">
-        <v>0.4666839047</v>
+        <v>0.466683904724249</v>
       </c>
       <c r="X24" t="n">
-        <v>0.02098512520600898</v>
+        <v>0.02098512520662169</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.4233468411756097</v>
+        <v>0.4233468411730258</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.2138296912516102</v>
+        <v>0.2138296912506393</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.7620320760999988</v>
+        <v>0.7620320761082553</v>
       </c>
       <c r="AB24" t="n">
-        <v>0.06061727077125521</v>
+        <v>0.06061727077081987</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.1745591514942462</v>
+        <v>0.1745591514939371</v>
       </c>
       <c r="AD24" t="n">
-        <v>0.03507988185191412</v>
+        <v>0.0350798818515719</v>
       </c>
       <c r="AE24" t="n">
-        <v>0.5097239068000006</v>
+        <v>0.5097239068402644</v>
       </c>
       <c r="AF24" t="n">
-        <v>0.03545613361182786</v>
+        <v>0.03545613361173592</v>
       </c>
       <c r="AG24" t="n">
-        <v>0.6982484974299732</v>
+        <v>0.6982484974285539</v>
       </c>
       <c r="AH24" t="n">
-        <v>0.4980723805565513</v>
+        <v>0.498072380554508</v>
       </c>
       <c r="AI24" t="n">
-        <v>1.0380247614</v>
+        <v>1.038024761418569</v>
       </c>
       <c r="AJ24" t="n">
-        <v>0.1416008760610425</v>
+        <v>0.1416008760607504</v>
       </c>
     </row>
     <row r="25">
@@ -3015,100 +3015,100 @@
         <v>96</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0295497831</v>
+        <v>0.02954978309571743</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0021981567</v>
+        <v>0.002198156667873263</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2798509002</v>
+        <v>0.2798509001731873</v>
       </c>
       <c r="H25" t="n">
-        <v>11.4058761597</v>
+        <v>11.40587615966797</v>
       </c>
       <c r="I25" t="n">
-        <v>0.0285624638</v>
+        <v>0.02856246381998062</v>
       </c>
       <c r="J25" t="n">
-        <v>0.0030317914</v>
+        <v>0.003031791420653462</v>
       </c>
       <c r="K25" t="n">
-        <v>0.3100750148</v>
+        <v>0.3100750148296356</v>
       </c>
       <c r="L25" t="n">
-        <v>20.6819248199</v>
+        <v>20.68192481994629</v>
       </c>
       <c r="M25" t="n">
-        <v>0.1047224872512195</v>
+        <v>0.1047224872532847</v>
       </c>
       <c r="N25" t="n">
-        <v>0.02774019915774075</v>
+        <v>0.0277401991566876</v>
       </c>
       <c r="O25" t="n">
-        <v>0.6845901877999996</v>
+        <v>0.6845901878488689</v>
       </c>
       <c r="P25" t="n">
-        <v>0.0234244816968062</v>
+        <v>0.0234244816969166</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.2164894651195122</v>
+        <v>0.2164894651139692</v>
       </c>
       <c r="R25" t="n">
-        <v>0.1065554387501838</v>
+        <v>0.1065554387484977</v>
       </c>
       <c r="S25" t="n">
-        <v>1.1798859835</v>
+        <v>1.179885983564741</v>
       </c>
       <c r="T25" t="n">
-        <v>0.04840875004981277</v>
+        <v>0.04840875004857093</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1496084219585366</v>
+        <v>0.149608421968505</v>
       </c>
       <c r="V25" t="n">
-        <v>0.04540272486702115</v>
+        <v>0.04540272486854362</v>
       </c>
       <c r="W25" t="n">
-        <v>0.5718198603999998</v>
+        <v>0.5718198604592146</v>
       </c>
       <c r="X25" t="n">
-        <v>0.02021816357549901</v>
+        <v>0.02021816357692962</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.3847536312670732</v>
+        <v>0.3847536312661389</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.2735928128741828</v>
+        <v>0.2735928128774135</v>
       </c>
       <c r="AA25" t="n">
-        <v>1.3098068291</v>
+        <v>1.309806829165183</v>
       </c>
       <c r="AB25" t="n">
-        <v>0.04887607479335902</v>
+        <v>0.04887607479346211</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.060260214929215</v>
+        <v>0.06026021492699485</v>
       </c>
       <c r="AD25" t="n">
-        <v>0.007562304780578601</v>
+        <v>0.007562304780445199</v>
       </c>
       <c r="AE25" t="n">
-        <v>0.6845901877999996</v>
+        <v>0.6845901878488689</v>
       </c>
       <c r="AF25" t="n">
-        <v>0.01206245808820513</v>
+        <v>0.01206245808771809</v>
       </c>
       <c r="AG25" t="n">
-        <v>0.1370585935681088</v>
+        <v>0.1370585935677613</v>
       </c>
       <c r="AH25" t="n">
-        <v>0.03128938791815328</v>
+        <v>0.03128938791772624</v>
       </c>
       <c r="AI25" t="n">
-        <v>1.3108724034</v>
+        <v>1.310872403451697</v>
       </c>
       <c r="AJ25" t="n">
-        <v>0.02713927377145006</v>
+        <v>0.02713927377137156</v>
       </c>
     </row>
     <row r="26">
@@ -3127,100 +3127,100 @@
         <v>128</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0295497831</v>
+        <v>0.02954978309571743</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0021981567</v>
+        <v>0.002198156667873263</v>
       </c>
       <c r="G26" t="n">
-        <v>0.2798509002</v>
+        <v>0.2798509001731873</v>
       </c>
       <c r="H26" t="n">
-        <v>11.4058761597</v>
+        <v>11.40587615966797</v>
       </c>
       <c r="I26" t="n">
-        <v>0.0285624638</v>
+        <v>0.02856246381998062</v>
       </c>
       <c r="J26" t="n">
-        <v>0.0030317914</v>
+        <v>0.003031791420653462</v>
       </c>
       <c r="K26" t="n">
-        <v>0.3100750148</v>
+        <v>0.3100750148296356</v>
       </c>
       <c r="L26" t="n">
-        <v>20.6819248199</v>
+        <v>20.68192481994629</v>
       </c>
       <c r="M26" t="n">
-        <v>0.1047224872512195</v>
+        <v>0.1047224872532847</v>
       </c>
       <c r="N26" t="n">
-        <v>0.02774019915774075</v>
+        <v>0.0277401991566876</v>
       </c>
       <c r="O26" t="n">
-        <v>0.6845901877999996</v>
+        <v>0.6845901878488689</v>
       </c>
       <c r="P26" t="n">
-        <v>0.0234244816968062</v>
+        <v>0.0234244816969166</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.2164894651195122</v>
+        <v>0.2164894651139692</v>
       </c>
       <c r="R26" t="n">
-        <v>0.1065554387501838</v>
+        <v>0.1065554387484977</v>
       </c>
       <c r="S26" t="n">
-        <v>1.1798859835</v>
+        <v>1.179885983564741</v>
       </c>
       <c r="T26" t="n">
-        <v>0.04840875004981277</v>
+        <v>0.04840875004857093</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1496084219585366</v>
+        <v>0.149608421968505</v>
       </c>
       <c r="V26" t="n">
-        <v>0.04540272486702115</v>
+        <v>0.04540272486854362</v>
       </c>
       <c r="W26" t="n">
-        <v>0.5718198603999998</v>
+        <v>0.5718198604592146</v>
       </c>
       <c r="X26" t="n">
-        <v>0.02021816357549901</v>
+        <v>0.02021816357692962</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.3847536312670732</v>
+        <v>0.3847536312661389</v>
       </c>
       <c r="Z26" t="n">
-        <v>0.2735928128741828</v>
+        <v>0.2735928128774135</v>
       </c>
       <c r="AA26" t="n">
-        <v>1.3098068291</v>
+        <v>1.309806829165183</v>
       </c>
       <c r="AB26" t="n">
-        <v>0.04887607479335902</v>
+        <v>0.04887607479346211</v>
       </c>
       <c r="AC26" t="n">
-        <v>0.060260214929215</v>
+        <v>0.06026021492699485</v>
       </c>
       <c r="AD26" t="n">
-        <v>0.007562304780578601</v>
+        <v>0.007562304780445199</v>
       </c>
       <c r="AE26" t="n">
-        <v>0.6845901877999996</v>
+        <v>0.6845901878488689</v>
       </c>
       <c r="AF26" t="n">
-        <v>0.01206245808820513</v>
+        <v>0.01206245808771809</v>
       </c>
       <c r="AG26" t="n">
-        <v>0.1370585935681088</v>
+        <v>0.1370585935677613</v>
       </c>
       <c r="AH26" t="n">
-        <v>0.03128938791815328</v>
+        <v>0.03128938791772624</v>
       </c>
       <c r="AI26" t="n">
-        <v>1.3108724034</v>
+        <v>1.310872403451697</v>
       </c>
       <c r="AJ26" t="n">
-        <v>0.02713927377145006</v>
+        <v>0.02713927377137156</v>
       </c>
     </row>
     <row r="27">
@@ -3239,100 +3239,100 @@
         <v>160</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0295497831</v>
+        <v>0.02954978309571743</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0021981567</v>
+        <v>0.002198156667873263</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2798509002</v>
+        <v>0.2798509001731873</v>
       </c>
       <c r="H27" t="n">
-        <v>11.4058761597</v>
+        <v>11.40587615966797</v>
       </c>
       <c r="I27" t="n">
-        <v>0.0285624638</v>
+        <v>0.02856246381998062</v>
       </c>
       <c r="J27" t="n">
-        <v>0.0030317914</v>
+        <v>0.003031791420653462</v>
       </c>
       <c r="K27" t="n">
-        <v>0.3100750148</v>
+        <v>0.3100750148296356</v>
       </c>
       <c r="L27" t="n">
-        <v>20.6819248199</v>
+        <v>20.68192481994629</v>
       </c>
       <c r="M27" t="n">
-        <v>0.1047224872512195</v>
+        <v>0.1047224872532847</v>
       </c>
       <c r="N27" t="n">
-        <v>0.02774019915774075</v>
+        <v>0.0277401991566876</v>
       </c>
       <c r="O27" t="n">
-        <v>0.6845901877999996</v>
+        <v>0.6845901878488689</v>
       </c>
       <c r="P27" t="n">
-        <v>0.0234244816968062</v>
+        <v>0.0234244816969166</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.2164894651195122</v>
+        <v>0.2164894651139692</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1065554387501838</v>
+        <v>0.1065554387484977</v>
       </c>
       <c r="S27" t="n">
-        <v>1.1798859835</v>
+        <v>1.179885983564741</v>
       </c>
       <c r="T27" t="n">
-        <v>0.04840875004981277</v>
+        <v>0.04840875004857093</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1496084219585366</v>
+        <v>0.149608421968505</v>
       </c>
       <c r="V27" t="n">
-        <v>0.04540272486702115</v>
+        <v>0.04540272486854362</v>
       </c>
       <c r="W27" t="n">
-        <v>0.5718198603999998</v>
+        <v>0.5718198604592146</v>
       </c>
       <c r="X27" t="n">
-        <v>0.02021816357549901</v>
+        <v>0.02021816357692962</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.3847536312670732</v>
+        <v>0.3847536312661389</v>
       </c>
       <c r="Z27" t="n">
-        <v>0.2735928128741828</v>
+        <v>0.2735928128774135</v>
       </c>
       <c r="AA27" t="n">
-        <v>1.3098068291</v>
+        <v>1.309806829165183</v>
       </c>
       <c r="AB27" t="n">
-        <v>0.04887607479335902</v>
+        <v>0.04887607479346211</v>
       </c>
       <c r="AC27" t="n">
-        <v>0.060260214929215</v>
+        <v>0.06026021492699485</v>
       </c>
       <c r="AD27" t="n">
-        <v>0.007562304780578601</v>
+        <v>0.007562304780445199</v>
       </c>
       <c r="AE27" t="n">
-        <v>0.6845901877999996</v>
+        <v>0.6845901878488689</v>
       </c>
       <c r="AF27" t="n">
-        <v>0.01206245808820513</v>
+        <v>0.01206245808771809</v>
       </c>
       <c r="AG27" t="n">
-        <v>0.1370585935681088</v>
+        <v>0.1370585935677613</v>
       </c>
       <c r="AH27" t="n">
-        <v>0.03128938791815328</v>
+        <v>0.03128938791772624</v>
       </c>
       <c r="AI27" t="n">
-        <v>1.3108724034</v>
+        <v>1.310872403451697</v>
       </c>
       <c r="AJ27" t="n">
-        <v>0.02713927377145006</v>
+        <v>0.02713927377137156</v>
       </c>
     </row>
     <row r="28">
@@ -3351,100 +3351,100 @@
         <v>192</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0295497831</v>
+        <v>0.02954978309571743</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0021981567</v>
+        <v>0.002198156667873263</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2798509002</v>
+        <v>0.2798509001731873</v>
       </c>
       <c r="H28" t="n">
-        <v>11.4058761597</v>
+        <v>11.40587615966797</v>
       </c>
       <c r="I28" t="n">
-        <v>0.0285624638</v>
+        <v>0.02856246381998062</v>
       </c>
       <c r="J28" t="n">
-        <v>0.0030317914</v>
+        <v>0.003031791420653462</v>
       </c>
       <c r="K28" t="n">
-        <v>0.3100750148</v>
+        <v>0.3100750148296356</v>
       </c>
       <c r="L28" t="n">
-        <v>20.6819248199</v>
+        <v>20.68192481994629</v>
       </c>
       <c r="M28" t="n">
-        <v>0.1047224872512195</v>
+        <v>0.1047224872532847</v>
       </c>
       <c r="N28" t="n">
-        <v>0.02774019915774075</v>
+        <v>0.0277401991566876</v>
       </c>
       <c r="O28" t="n">
-        <v>0.6845901877999996</v>
+        <v>0.6845901878488689</v>
       </c>
       <c r="P28" t="n">
-        <v>0.0234244816968062</v>
+        <v>0.0234244816969166</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.2164894651195122</v>
+        <v>0.2164894651139692</v>
       </c>
       <c r="R28" t="n">
-        <v>0.1065554387501838</v>
+        <v>0.1065554387484977</v>
       </c>
       <c r="S28" t="n">
-        <v>1.1798859835</v>
+        <v>1.179885983564741</v>
       </c>
       <c r="T28" t="n">
-        <v>0.04840875004981277</v>
+        <v>0.04840875004857093</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1496084219585366</v>
+        <v>0.149608421968505</v>
       </c>
       <c r="V28" t="n">
-        <v>0.04540272486702115</v>
+        <v>0.04540272486854362</v>
       </c>
       <c r="W28" t="n">
-        <v>0.5718198603999998</v>
+        <v>0.5718198604592146</v>
       </c>
       <c r="X28" t="n">
-        <v>0.02021816357549901</v>
+        <v>0.02021816357692962</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.3847536312670732</v>
+        <v>0.3847536312661389</v>
       </c>
       <c r="Z28" t="n">
-        <v>0.2735928128741828</v>
+        <v>0.2735928128774135</v>
       </c>
       <c r="AA28" t="n">
-        <v>1.3098068291</v>
+        <v>1.309806829165183</v>
       </c>
       <c r="AB28" t="n">
-        <v>0.04887607479335902</v>
+        <v>0.04887607479346211</v>
       </c>
       <c r="AC28" t="n">
-        <v>0.060260214929215</v>
+        <v>0.06026021492699485</v>
       </c>
       <c r="AD28" t="n">
-        <v>0.007562304780578601</v>
+        <v>0.007562304780445199</v>
       </c>
       <c r="AE28" t="n">
-        <v>0.6845901877999996</v>
+        <v>0.6845901878488689</v>
       </c>
       <c r="AF28" t="n">
-        <v>0.01206245808820513</v>
+        <v>0.01206245808771809</v>
       </c>
       <c r="AG28" t="n">
-        <v>0.1370585935681088</v>
+        <v>0.1370585935677613</v>
       </c>
       <c r="AH28" t="n">
-        <v>0.03128938791815328</v>
+        <v>0.03128938791772624</v>
       </c>
       <c r="AI28" t="n">
-        <v>1.3108724034</v>
+        <v>1.310872403451697</v>
       </c>
       <c r="AJ28" t="n">
-        <v>0.02713927377145006</v>
+        <v>0.02713927377137156</v>
       </c>
     </row>
     <row r="29">
@@ -3463,100 +3463,100 @@
         <v>8</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0138607109</v>
+        <v>0.01386071089655161</v>
       </c>
       <c r="F29" t="n">
-        <v>0.000349648</v>
+        <v>0.0003496480348985642</v>
       </c>
       <c r="G29" t="n">
-        <v>0.07076400520000001</v>
+        <v>0.07076400518417358</v>
       </c>
       <c r="H29" t="n">
-        <v>4.3869714737</v>
+        <v>4.386971473693848</v>
       </c>
       <c r="I29" t="n">
-        <v>0.0167645887</v>
+        <v>0.01676458865404129</v>
       </c>
       <c r="J29" t="n">
-        <v>0.0005831713000000001</v>
+        <v>0.0005831712624058127</v>
       </c>
       <c r="K29" t="n">
-        <v>0.1171741486</v>
+        <v>0.1171741485595703</v>
       </c>
       <c r="L29" t="n">
-        <v>11.6434383392</v>
+        <v>11.6434383392334</v>
       </c>
       <c r="M29" t="n">
-        <v>0.06845096223292685</v>
+        <v>0.06845096223446479</v>
       </c>
       <c r="N29" t="n">
-        <v>0.009272223164274253</v>
+        <v>0.009272223165256886</v>
       </c>
       <c r="O29" t="n">
-        <v>0.3448308877999997</v>
+        <v>0.3448308878463138</v>
       </c>
       <c r="P29" t="n">
-        <v>0.01509754329991685</v>
+        <v>0.015097543300294</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.1113279856365853</v>
+        <v>0.1113279856364027</v>
       </c>
       <c r="R29" t="n">
-        <v>0.01836537664836624</v>
+        <v>0.01836537664887799</v>
       </c>
       <c r="S29" t="n">
-        <v>0.4033647358000003</v>
+        <v>0.403364735838295</v>
       </c>
       <c r="T29" t="n">
-        <v>0.02453908249388203</v>
+        <v>0.02453908249371521</v>
       </c>
       <c r="U29" t="n">
-        <v>0.08339789055609756</v>
+        <v>0.08339789056034078</v>
       </c>
       <c r="V29" t="n">
-        <v>0.01276810702407966</v>
+        <v>0.01276810702453515</v>
       </c>
       <c r="W29" t="n">
-        <v>0.3642904786999992</v>
+        <v>0.3642904786089787</v>
       </c>
       <c r="X29" t="n">
-        <v>0.01129956994608015</v>
+        <v>0.01129956994708358</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.09742875128292686</v>
+        <v>0.09742875128598223</v>
       </c>
       <c r="Z29" t="n">
-        <v>0.01602937390515284</v>
+        <v>0.01602937390561949</v>
       </c>
       <c r="AA29" t="n">
-        <v>0.3744224416000002</v>
+        <v>0.3744224415776216</v>
       </c>
       <c r="AB29" t="n">
-        <v>0.01352358256832782</v>
+        <v>0.01352358256863589</v>
       </c>
       <c r="AC29" t="n">
-        <v>0.06561770735330064</v>
+        <v>0.06561770735254088</v>
       </c>
       <c r="AD29" t="n">
-        <v>0.007207300563082972</v>
+        <v>0.007207300563101176</v>
       </c>
       <c r="AE29" t="n">
-        <v>0.3868906828999998</v>
+        <v>0.3868906829104048</v>
       </c>
       <c r="AF29" t="n">
-        <v>0.0132979949720337</v>
+        <v>0.01329799497188301</v>
       </c>
       <c r="AG29" t="n">
-        <v>0.1166417973344781</v>
+        <v>0.1166417973331963</v>
       </c>
       <c r="AH29" t="n">
-        <v>0.0173340890698816</v>
+        <v>0.01733408906925245</v>
       </c>
       <c r="AI29" t="n">
-        <v>0.4222472257000005</v>
+        <v>0.4222472257876007</v>
       </c>
       <c r="AJ29" t="n">
-        <v>0.0237341551766327</v>
+        <v>0.02373415517634739</v>
       </c>
     </row>
     <row r="30">
@@ -3575,100 +3575,100 @@
         <v>16</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0143236499</v>
+        <v>0.01432364992797375</v>
       </c>
       <c r="F30" t="n">
-        <v>0.000366495</v>
+        <v>0.0003664949908852577</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0789789259</v>
+        <v>0.07897892594337463</v>
       </c>
       <c r="H30" t="n">
-        <v>4.8961167336</v>
+        <v>4.896116733551025</v>
       </c>
       <c r="I30" t="n">
-        <v>0.0170686711</v>
+        <v>0.01706867106258869</v>
       </c>
       <c r="J30" t="n">
-        <v>0.0006882299</v>
+        <v>0.0006882298621349037</v>
       </c>
       <c r="K30" t="n">
-        <v>0.1299597025</v>
+        <v>0.1299597024917603</v>
       </c>
       <c r="L30" t="n">
-        <v>10.5082798004</v>
+        <v>10.50827980041504</v>
       </c>
       <c r="M30" t="n">
-        <v>0.06789784480365856</v>
+        <v>0.0678978448082965</v>
       </c>
       <c r="N30" t="n">
-        <v>0.008334240084519554</v>
+        <v>0.008334240085638248</v>
       </c>
       <c r="O30" t="n">
-        <v>0.2586455525</v>
+        <v>0.2586455524591571</v>
       </c>
       <c r="P30" t="n">
-        <v>0.01475433535600493</v>
+        <v>0.01475433535704684</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.1401148232085366</v>
+        <v>0.1401148232080918</v>
       </c>
       <c r="R30" t="n">
-        <v>0.02584749680339326</v>
+        <v>0.02584749680344868</v>
       </c>
       <c r="S30" t="n">
-        <v>0.3439941440000007</v>
+        <v>0.3439941440037302</v>
       </c>
       <c r="T30" t="n">
-        <v>0.02989288462789392</v>
+        <v>0.02989288462775341</v>
       </c>
       <c r="U30" t="n">
-        <v>0.09347468122073188</v>
+        <v>0.0934746812155831</v>
       </c>
       <c r="V30" t="n">
-        <v>0.01536338023070269</v>
+        <v>0.01536338023016865</v>
       </c>
       <c r="W30" t="n">
-        <v>0.3878184269000009</v>
+        <v>0.3878184268344285</v>
       </c>
       <c r="X30" t="n">
-        <v>0.01289578633585771</v>
+        <v>0.01289578633534605</v>
       </c>
       <c r="Y30" t="n">
-        <v>0.137967019764634</v>
+        <v>0.1379670197659983</v>
       </c>
       <c r="Z30" t="n">
-        <v>0.02772673947558888</v>
+        <v>0.02772673947556277</v>
       </c>
       <c r="AA30" t="n">
-        <v>0.4112352291000008</v>
+        <v>0.4112352290338208</v>
       </c>
       <c r="AB30" t="n">
-        <v>0.01995026317463311</v>
+        <v>0.01995026317499829</v>
       </c>
       <c r="AC30" t="n">
-        <v>0.08069221117163246</v>
+        <v>0.08069221116937693</v>
       </c>
       <c r="AD30" t="n">
-        <v>0.01003494449175383</v>
+        <v>0.01003494449137772</v>
       </c>
       <c r="AE30" t="n">
-        <v>0.4173693365000002</v>
+        <v>0.4173693365176945</v>
       </c>
       <c r="AF30" t="n">
-        <v>0.01636147743811036</v>
+        <v>0.01636147743766642</v>
       </c>
       <c r="AG30" t="n">
-        <v>0.2008724634486173</v>
+        <v>0.2008724634478966</v>
       </c>
       <c r="AH30" t="n">
-        <v>0.04457727933444177</v>
+        <v>0.04457727933398916</v>
       </c>
       <c r="AI30" t="n">
-        <v>0.5205659127000004</v>
+        <v>0.5205659127704791</v>
       </c>
       <c r="AJ30" t="n">
-        <v>0.04081832628787934</v>
+        <v>0.04081832628771566</v>
       </c>
     </row>
     <row r="31">
@@ -3687,100 +3687,100 @@
         <v>32</v>
       </c>
       <c r="E31" t="n">
-        <v>0.012068118</v>
+        <v>0.01206811796873808</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0002942049</v>
+        <v>0.0002942049177363515</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0758610368</v>
+        <v>0.07586103677749634</v>
       </c>
       <c r="H31" t="n">
-        <v>3.8244318962</v>
+        <v>3.824431896209717</v>
       </c>
       <c r="I31" t="n">
-        <v>0.0164269451</v>
+        <v>0.01642694510519505</v>
       </c>
       <c r="J31" t="n">
-        <v>0.0006201317</v>
+        <v>0.0006201316718943417</v>
       </c>
       <c r="K31" t="n">
-        <v>0.1191408113</v>
+        <v>0.1191408112645149</v>
       </c>
       <c r="L31" t="n">
-        <v>13.3091659546</v>
+        <v>13.30916595458984</v>
       </c>
       <c r="M31" t="n">
-        <v>0.0830474628146341</v>
+        <v>0.08304746282136692</v>
       </c>
       <c r="N31" t="n">
-        <v>0.01869681957526031</v>
+        <v>0.01869681957703339</v>
       </c>
       <c r="O31" t="n">
-        <v>0.5759330469000004</v>
+        <v>0.5759330469807935</v>
       </c>
       <c r="P31" t="n">
-        <v>0.0178491642512498</v>
+        <v>0.01784916425264475</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.1246280008036584</v>
+        <v>0.124628000808864</v>
       </c>
       <c r="R31" t="n">
-        <v>0.03736616404671401</v>
+        <v>0.03736616404774556</v>
       </c>
       <c r="S31" t="n">
-        <v>0.7538769849000007</v>
+        <v>0.7538769849584952</v>
       </c>
       <c r="T31" t="n">
-        <v>0.02661566135158385</v>
+        <v>0.02661566135284456</v>
       </c>
       <c r="U31" t="n">
-        <v>0.0894454478768293</v>
+        <v>0.08944544787920673</v>
       </c>
       <c r="V31" t="n">
-        <v>0.01511486908681998</v>
+        <v>0.01511486908711602</v>
       </c>
       <c r="W31" t="n">
-        <v>0.4101864358</v>
+        <v>0.4101864358698322</v>
       </c>
       <c r="X31" t="n">
-        <v>0.01205822935994698</v>
+        <v>0.01205822936058206</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.1074235139463415</v>
+        <v>0.1074235139416345</v>
       </c>
       <c r="Z31" t="n">
-        <v>0.02084674903384899</v>
+        <v>0.02084674903324035</v>
       </c>
       <c r="AA31" t="n">
-        <v>0.4450896870000003</v>
+        <v>0.44508968701291</v>
       </c>
       <c r="AB31" t="n">
-        <v>0.01424717495434001</v>
+        <v>0.01424717495385092</v>
       </c>
       <c r="AC31" t="n">
-        <v>0.05484305813951828</v>
+        <v>0.05484305813849809</v>
       </c>
       <c r="AD31" t="n">
-        <v>0.005206389644340831</v>
+        <v>0.00520638964435908</v>
       </c>
       <c r="AE31" t="n">
-        <v>0.5759330469000004</v>
+        <v>0.5759330469807935</v>
       </c>
       <c r="AF31" t="n">
-        <v>0.01100065858356279</v>
+        <v>0.01100065858336529</v>
       </c>
       <c r="AG31" t="n">
-        <v>0.05732765248666369</v>
+        <v>0.05732765248641842</v>
       </c>
       <c r="AH31" t="n">
-        <v>0.005997863362795849</v>
+        <v>0.005997863362755798</v>
       </c>
       <c r="AI31" t="n">
-        <v>0.7538769849000007</v>
+        <v>0.7538769849584952</v>
       </c>
       <c r="AJ31" t="n">
-        <v>0.01143962957018865</v>
+        <v>0.01143962957014371</v>
       </c>
     </row>
     <row r="32">
@@ -3799,100 +3799,100 @@
         <v>64</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0177815035</v>
+        <v>0.01778150349855423</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0006554544</v>
+        <v>0.0006554544088430703</v>
       </c>
       <c r="G32" t="n">
-        <v>0.1051410735</v>
+        <v>0.1051410734653473</v>
       </c>
       <c r="H32" t="n">
-        <v>6.0348296165</v>
+        <v>6.034829616546631</v>
       </c>
       <c r="I32" t="n">
-        <v>0.0156032862</v>
+        <v>0.01560328621417284</v>
       </c>
       <c r="J32" t="n">
-        <v>0.0006372001</v>
+        <v>0.0006372001371346414</v>
       </c>
       <c r="K32" t="n">
-        <v>0.1854407787</v>
+        <v>0.1854407787322998</v>
       </c>
       <c r="L32" t="n">
-        <v>11.7797250748</v>
+        <v>11.77972507476807</v>
       </c>
       <c r="M32" t="n">
-        <v>0.09043431474268293</v>
+        <v>0.09043431474196001</v>
       </c>
       <c r="N32" t="n">
-        <v>0.01644542568502385</v>
+        <v>0.01644542568686179</v>
       </c>
       <c r="O32" t="n">
-        <v>0.5096274745000002</v>
+        <v>0.5096274745673952</v>
       </c>
       <c r="P32" t="n">
-        <v>0.01954708565446576</v>
+        <v>0.01954708565420341</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.2154600008731707</v>
+        <v>0.2154600008728126</v>
       </c>
       <c r="R32" t="n">
-        <v>0.07455001704849809</v>
+        <v>0.07455001705034789</v>
       </c>
       <c r="S32" t="n">
-        <v>0.9396751933999994</v>
+        <v>0.9396751933858241</v>
       </c>
       <c r="T32" t="n">
-        <v>0.04609230217309161</v>
+        <v>0.04609230217282922</v>
       </c>
       <c r="U32" t="n">
-        <v>0.09251818455975609</v>
+        <v>0.09251818456169519</v>
       </c>
       <c r="V32" t="n">
-        <v>0.01469747486722531</v>
+        <v>0.01469747486785665</v>
       </c>
       <c r="W32" t="n">
-        <v>0.3749907816000011</v>
+        <v>0.3749907816353204</v>
       </c>
       <c r="X32" t="n">
-        <v>0.01253094345699712</v>
+        <v>0.01253094345772096</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.1242569865402439</v>
+        <v>0.1242569865368642</v>
       </c>
       <c r="Z32" t="n">
-        <v>0.02392085061217476</v>
+        <v>0.02392085061348433</v>
       </c>
       <c r="AA32" t="n">
-        <v>0.5016293863000012</v>
+        <v>0.5016293862633177</v>
       </c>
       <c r="AB32" t="n">
-        <v>0.01800738478105109</v>
+        <v>0.01800738478070641</v>
       </c>
       <c r="AC32" t="n">
-        <v>0.07708206458590545</v>
+        <v>0.07708206458400121</v>
       </c>
       <c r="AD32" t="n">
-        <v>0.009499692255701832</v>
+        <v>0.009499692255424831</v>
       </c>
       <c r="AE32" t="n">
-        <v>0.5096274745000002</v>
+        <v>0.5096274745673952</v>
       </c>
       <c r="AF32" t="n">
-        <v>0.01562064404356841</v>
+        <v>0.015620644043183</v>
       </c>
       <c r="AG32" t="n">
-        <v>0.200057915679438</v>
+        <v>0.2000579156782609</v>
       </c>
       <c r="AH32" t="n">
-        <v>0.04484727684412161</v>
+        <v>0.04484727684370522</v>
       </c>
       <c r="AI32" t="n">
-        <v>0.9396751933999994</v>
+        <v>0.9396751933858241</v>
       </c>
       <c r="AJ32" t="n">
-        <v>0.04071616864725594</v>
+        <v>0.04071616864701922</v>
       </c>
     </row>
     <row r="33">
@@ -3911,100 +3911,100 @@
         <v>96</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0125818299</v>
+        <v>0.01258182991296053</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0003060846</v>
+        <v>0.0003060846065636724</v>
       </c>
       <c r="G33" t="n">
-        <v>0.07700905200000001</v>
+        <v>0.07700905203819275</v>
       </c>
       <c r="H33" t="n">
-        <v>4.2845230103</v>
+        <v>4.284523010253906</v>
       </c>
       <c r="I33" t="n">
-        <v>0.0172593482</v>
+        <v>0.01725934818387032</v>
       </c>
       <c r="J33" t="n">
-        <v>0.0007574905</v>
+        <v>0.0007574905175715685</v>
       </c>
       <c r="K33" t="n">
-        <v>0.136108309</v>
+        <v>0.1361083090305328</v>
       </c>
       <c r="L33" t="n">
-        <v>10.9357700348</v>
+        <v>10.93577003479004</v>
       </c>
       <c r="M33" t="n">
-        <v>0.06197533442073173</v>
+        <v>0.06197533442058678</v>
       </c>
       <c r="N33" t="n">
-        <v>0.0077291697801156</v>
+        <v>0.00772916977985872</v>
       </c>
       <c r="O33" t="n">
-        <v>0.3387620429</v>
+        <v>0.3387620429066942</v>
       </c>
       <c r="P33" t="n">
-        <v>0.01339898384671057</v>
+        <v>0.01339898384675011</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.07252269312195121</v>
+        <v>0.07252269312200969</v>
       </c>
       <c r="R33" t="n">
-        <v>0.01257649930425678</v>
+        <v>0.01257649930454298</v>
       </c>
       <c r="S33" t="n">
-        <v>0.4611083253000006</v>
+        <v>0.4611083253881247</v>
       </c>
       <c r="T33" t="n">
-        <v>0.01549659642395553</v>
+        <v>0.01549659642394678</v>
       </c>
       <c r="U33" t="n">
-        <v>0.08181640081341472</v>
+        <v>0.08181640081698308</v>
       </c>
       <c r="V33" t="n">
-        <v>0.01310317712771228</v>
+        <v>0.0131031771278257</v>
       </c>
       <c r="W33" t="n">
-        <v>0.3795966800000006</v>
+        <v>0.3795966799711152</v>
       </c>
       <c r="X33" t="n">
-        <v>0.01083187128740472</v>
+        <v>0.0108318712880284</v>
       </c>
       <c r="Y33" t="n">
-        <v>0.1045450819902439</v>
+        <v>0.1045450819941629</v>
       </c>
       <c r="Z33" t="n">
-        <v>0.01898052800409532</v>
+        <v>0.01898052800316313</v>
       </c>
       <c r="AA33" t="n">
-        <v>0.4150046769000006</v>
+        <v>0.4150046768288576</v>
       </c>
       <c r="AB33" t="n">
-        <v>0.01362127223138267</v>
+        <v>0.01362127223207227</v>
       </c>
       <c r="AC33" t="n">
-        <v>0.05549282950102587</v>
+        <v>0.05549282950032879</v>
       </c>
       <c r="AD33" t="n">
-        <v>0.004957190472107798</v>
+        <v>0.004957190471930422</v>
       </c>
       <c r="AE33" t="n">
-        <v>0.3795966800000006</v>
+        <v>0.3795966799711152</v>
       </c>
       <c r="AF33" t="n">
-        <v>0.01112830763547313</v>
+        <v>0.01112830763533616</v>
       </c>
       <c r="AG33" t="n">
-        <v>0.0687954165190901</v>
+        <v>0.06879541651993169</v>
       </c>
       <c r="AH33" t="n">
-        <v>0.007056423585700354</v>
+        <v>0.007056423585689269</v>
       </c>
       <c r="AI33" t="n">
-        <v>0.4611083253000006</v>
+        <v>0.4611083253881247</v>
       </c>
       <c r="AJ33" t="n">
-        <v>0.01370697273266901</v>
+        <v>0.01370697273284599</v>
       </c>
     </row>
     <row r="34">
@@ -4023,100 +4023,100 @@
         <v>128</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0125818299</v>
+        <v>0.01258182991296053</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0003060846</v>
+        <v>0.0003060846065636724</v>
       </c>
       <c r="G34" t="n">
-        <v>0.07700905200000001</v>
+        <v>0.07700905203819275</v>
       </c>
       <c r="H34" t="n">
-        <v>4.2845230103</v>
+        <v>4.284523010253906</v>
       </c>
       <c r="I34" t="n">
-        <v>0.0172593482</v>
+        <v>0.01725934818387032</v>
       </c>
       <c r="J34" t="n">
-        <v>0.0007574905</v>
+        <v>0.0007574905175715685</v>
       </c>
       <c r="K34" t="n">
-        <v>0.136108309</v>
+        <v>0.1361083090305328</v>
       </c>
       <c r="L34" t="n">
-        <v>10.9357700348</v>
+        <v>10.93577003479004</v>
       </c>
       <c r="M34" t="n">
-        <v>0.06197533442073173</v>
+        <v>0.06197533442058678</v>
       </c>
       <c r="N34" t="n">
-        <v>0.0077291697801156</v>
+        <v>0.00772916977985872</v>
       </c>
       <c r="O34" t="n">
-        <v>0.3387620429</v>
+        <v>0.3387620429066942</v>
       </c>
       <c r="P34" t="n">
-        <v>0.01339898384671057</v>
+        <v>0.01339898384675011</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.07252269312195121</v>
+        <v>0.07252269312200969</v>
       </c>
       <c r="R34" t="n">
-        <v>0.01257649930425678</v>
+        <v>0.01257649930454298</v>
       </c>
       <c r="S34" t="n">
-        <v>0.4611083253000006</v>
+        <v>0.4611083253881247</v>
       </c>
       <c r="T34" t="n">
-        <v>0.01549659642395553</v>
+        <v>0.01549659642394678</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08181640081341472</v>
+        <v>0.08181640081698308</v>
       </c>
       <c r="V34" t="n">
-        <v>0.01310317712771228</v>
+        <v>0.0131031771278257</v>
       </c>
       <c r="W34" t="n">
-        <v>0.3795966800000006</v>
+        <v>0.3795966799711152</v>
       </c>
       <c r="X34" t="n">
-        <v>0.01083187128740472</v>
+        <v>0.0108318712880284</v>
       </c>
       <c r="Y34" t="n">
-        <v>0.1045450819902439</v>
+        <v>0.1045450819941629</v>
       </c>
       <c r="Z34" t="n">
-        <v>0.01898052800409532</v>
+        <v>0.01898052800316313</v>
       </c>
       <c r="AA34" t="n">
-        <v>0.4150046769000006</v>
+        <v>0.4150046768288576</v>
       </c>
       <c r="AB34" t="n">
-        <v>0.01362127223138267</v>
+        <v>0.01362127223207227</v>
       </c>
       <c r="AC34" t="n">
-        <v>0.05549282950102587</v>
+        <v>0.05549282950032879</v>
       </c>
       <c r="AD34" t="n">
-        <v>0.004957190472107798</v>
+        <v>0.004957190471930422</v>
       </c>
       <c r="AE34" t="n">
-        <v>0.3795966800000006</v>
+        <v>0.3795966799711152</v>
       </c>
       <c r="AF34" t="n">
-        <v>0.01112830763547313</v>
+        <v>0.01112830763533616</v>
       </c>
       <c r="AG34" t="n">
-        <v>0.0687954165190901</v>
+        <v>0.06879541651993169</v>
       </c>
       <c r="AH34" t="n">
-        <v>0.007056423585700354</v>
+        <v>0.007056423585689269</v>
       </c>
       <c r="AI34" t="n">
-        <v>0.4611083253000006</v>
+        <v>0.4611083253881247</v>
       </c>
       <c r="AJ34" t="n">
-        <v>0.01370697273266901</v>
+        <v>0.01370697273284599</v>
       </c>
     </row>
     <row r="35">
@@ -4135,100 +4135,100 @@
         <v>160</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0125818299</v>
+        <v>0.01258182991296053</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0003060846</v>
+        <v>0.0003060846065636724</v>
       </c>
       <c r="G35" t="n">
-        <v>0.07700905200000001</v>
+        <v>0.07700905203819275</v>
       </c>
       <c r="H35" t="n">
-        <v>4.2845230103</v>
+        <v>4.284523010253906</v>
       </c>
       <c r="I35" t="n">
-        <v>0.0172593482</v>
+        <v>0.01725934818387032</v>
       </c>
       <c r="J35" t="n">
-        <v>0.0007574905</v>
+        <v>0.0007574905175715685</v>
       </c>
       <c r="K35" t="n">
-        <v>0.136108309</v>
+        <v>0.1361083090305328</v>
       </c>
       <c r="L35" t="n">
-        <v>10.9357700348</v>
+        <v>10.93577003479004</v>
       </c>
       <c r="M35" t="n">
-        <v>0.06197533442073173</v>
+        <v>0.06197533442058678</v>
       </c>
       <c r="N35" t="n">
-        <v>0.0077291697801156</v>
+        <v>0.00772916977985872</v>
       </c>
       <c r="O35" t="n">
-        <v>0.3387620429</v>
+        <v>0.3387620429066942</v>
       </c>
       <c r="P35" t="n">
-        <v>0.01339898384671057</v>
+        <v>0.01339898384675011</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.07252269312195121</v>
+        <v>0.07252269312200969</v>
       </c>
       <c r="R35" t="n">
-        <v>0.01257649930425678</v>
+        <v>0.01257649930454298</v>
       </c>
       <c r="S35" t="n">
-        <v>0.4611083253000006</v>
+        <v>0.4611083253881247</v>
       </c>
       <c r="T35" t="n">
-        <v>0.01549659642395553</v>
+        <v>0.01549659642394678</v>
       </c>
       <c r="U35" t="n">
-        <v>0.08181640081341472</v>
+        <v>0.08181640081698308</v>
       </c>
       <c r="V35" t="n">
-        <v>0.01310317712771228</v>
+        <v>0.0131031771278257</v>
       </c>
       <c r="W35" t="n">
-        <v>0.3795966800000006</v>
+        <v>0.3795966799711152</v>
       </c>
       <c r="X35" t="n">
-        <v>0.01083187128740472</v>
+        <v>0.0108318712880284</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.1045450819902439</v>
+        <v>0.1045450819941629</v>
       </c>
       <c r="Z35" t="n">
-        <v>0.01898052800409532</v>
+        <v>0.01898052800316313</v>
       </c>
       <c r="AA35" t="n">
-        <v>0.4150046769000006</v>
+        <v>0.4150046768288576</v>
       </c>
       <c r="AB35" t="n">
-        <v>0.01362127223138267</v>
+        <v>0.01362127223207227</v>
       </c>
       <c r="AC35" t="n">
-        <v>0.05549282950102587</v>
+        <v>0.05549282950032879</v>
       </c>
       <c r="AD35" t="n">
-        <v>0.004957190472107798</v>
+        <v>0.004957190471930422</v>
       </c>
       <c r="AE35" t="n">
-        <v>0.3795966800000006</v>
+        <v>0.3795966799711152</v>
       </c>
       <c r="AF35" t="n">
-        <v>0.01112830763547313</v>
+        <v>0.01112830763533616</v>
       </c>
       <c r="AG35" t="n">
-        <v>0.0687954165190901</v>
+        <v>0.06879541651993169</v>
       </c>
       <c r="AH35" t="n">
-        <v>0.007056423585700354</v>
+        <v>0.007056423585689269</v>
       </c>
       <c r="AI35" t="n">
-        <v>0.4611083253000006</v>
+        <v>0.4611083253881247</v>
       </c>
       <c r="AJ35" t="n">
-        <v>0.01370697273266901</v>
+        <v>0.01370697273284599</v>
       </c>
     </row>
     <row r="36">
@@ -4247,100 +4247,100 @@
         <v>192</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0125818299</v>
+        <v>0.01258182991296053</v>
       </c>
       <c r="F36" t="n">
-        <v>0.0003060846</v>
+        <v>0.0003060846065636724</v>
       </c>
       <c r="G36" t="n">
-        <v>0.07700905200000001</v>
+        <v>0.07700905203819275</v>
       </c>
       <c r="H36" t="n">
-        <v>4.2845230103</v>
+        <v>4.284523010253906</v>
       </c>
       <c r="I36" t="n">
-        <v>0.0172593482</v>
+        <v>0.01725934818387032</v>
       </c>
       <c r="J36" t="n">
-        <v>0.0007574905</v>
+        <v>0.0007574905175715685</v>
       </c>
       <c r="K36" t="n">
-        <v>0.136108309</v>
+        <v>0.1361083090305328</v>
       </c>
       <c r="L36" t="n">
-        <v>10.9357700348</v>
+        <v>10.93577003479004</v>
       </c>
       <c r="M36" t="n">
-        <v>0.06197533442073173</v>
+        <v>0.06197533442058678</v>
       </c>
       <c r="N36" t="n">
-        <v>0.0077291697801156</v>
+        <v>0.00772916977985872</v>
       </c>
       <c r="O36" t="n">
-        <v>0.3387620429</v>
+        <v>0.3387620429066942</v>
       </c>
       <c r="P36" t="n">
-        <v>0.01339898384671057</v>
+        <v>0.01339898384675011</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.07252269312195121</v>
+        <v>0.07252269312200969</v>
       </c>
       <c r="R36" t="n">
-        <v>0.01257649930425678</v>
+        <v>0.01257649930454298</v>
       </c>
       <c r="S36" t="n">
-        <v>0.4611083253000006</v>
+        <v>0.4611083253881247</v>
       </c>
       <c r="T36" t="n">
-        <v>0.01549659642395553</v>
+        <v>0.01549659642394678</v>
       </c>
       <c r="U36" t="n">
-        <v>0.08181640081341472</v>
+        <v>0.08181640081698308</v>
       </c>
       <c r="V36" t="n">
-        <v>0.01310317712771228</v>
+        <v>0.0131031771278257</v>
       </c>
       <c r="W36" t="n">
-        <v>0.3795966800000006</v>
+        <v>0.3795966799711152</v>
       </c>
       <c r="X36" t="n">
-        <v>0.01083187128740472</v>
+        <v>0.0108318712880284</v>
       </c>
       <c r="Y36" t="n">
-        <v>0.1045450819902439</v>
+        <v>0.1045450819941629</v>
       </c>
       <c r="Z36" t="n">
-        <v>0.01898052800409532</v>
+        <v>0.01898052800316313</v>
       </c>
       <c r="AA36" t="n">
-        <v>0.4150046769000006</v>
+        <v>0.4150046768288576</v>
       </c>
       <c r="AB36" t="n">
-        <v>0.01362127223138267</v>
+        <v>0.01362127223207227</v>
       </c>
       <c r="AC36" t="n">
-        <v>0.05549282950102587</v>
+        <v>0.05549282950032879</v>
       </c>
       <c r="AD36" t="n">
-        <v>0.004957190472107798</v>
+        <v>0.004957190471930422</v>
       </c>
       <c r="AE36" t="n">
-        <v>0.3795966800000006</v>
+        <v>0.3795966799711152</v>
       </c>
       <c r="AF36" t="n">
-        <v>0.01112830763547313</v>
+        <v>0.01112830763533616</v>
       </c>
       <c r="AG36" t="n">
-        <v>0.0687954165190901</v>
+        <v>0.06879541651993169</v>
       </c>
       <c r="AH36" t="n">
-        <v>0.007056423585700354</v>
+        <v>0.007056423585689269</v>
       </c>
       <c r="AI36" t="n">
-        <v>0.4611083253000006</v>
+        <v>0.4611083253881247</v>
       </c>
       <c r="AJ36" t="n">
-        <v>0.01370697273266901</v>
+        <v>0.01370697273284599</v>
       </c>
     </row>
     <row r="37">
@@ -4359,100 +4359,100 @@
         <v>8</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0148041658</v>
+        <v>0.0148041658103466</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0003990041</v>
+        <v>0.0003990041150245816</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0790044069</v>
+        <v>0.07900440692901611</v>
       </c>
       <c r="H37" t="n">
-        <v>4.9416623116</v>
+        <v>4.941662311553955</v>
       </c>
       <c r="I37" t="n">
-        <v>0.0186494943</v>
+        <v>0.01864949427545071</v>
       </c>
       <c r="J37" t="n">
-        <v>0.0007510799000000001</v>
+        <v>0.0007510798750445247</v>
       </c>
       <c r="K37" t="n">
-        <v>0.1391564012</v>
+        <v>0.1391564011573792</v>
       </c>
       <c r="L37" t="n">
-        <v>12.9546756744</v>
+        <v>12.95467567443848</v>
       </c>
       <c r="M37" t="n">
-        <v>0.0675340331231707</v>
+        <v>0.06753403312137013</v>
       </c>
       <c r="N37" t="n">
-        <v>0.008751803273861351</v>
+        <v>0.008751803274718747</v>
       </c>
       <c r="O37" t="n">
-        <v>0.3500795634000005</v>
+        <v>0.3500795634866165</v>
       </c>
       <c r="P37" t="n">
-        <v>0.01473755984146369</v>
+        <v>0.01473755984079573</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.1077226858731707</v>
+        <v>0.1077226858752183</v>
       </c>
       <c r="R37" t="n">
-        <v>0.02163795676043308</v>
+        <v>0.02163795676177208</v>
       </c>
       <c r="S37" t="n">
-        <v>0.5917145929999998</v>
+        <v>0.5917145930445855</v>
       </c>
       <c r="T37" t="n">
-        <v>0.02358401849384182</v>
+        <v>0.02358401849422362</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08376145524878049</v>
+        <v>0.08376145524634482</v>
       </c>
       <c r="V37" t="n">
-        <v>0.01291123094712378</v>
+        <v>0.01291123094732123</v>
       </c>
       <c r="W37" t="n">
-        <v>0.3607565789000002</v>
+        <v>0.3607565788141187</v>
       </c>
       <c r="X37" t="n">
-        <v>0.01125890845004249</v>
+        <v>0.01125890844987883</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.09126107261463415</v>
+        <v>0.0912610726181152</v>
       </c>
       <c r="Z37" t="n">
-        <v>0.01380091793504644</v>
+        <v>0.01380091793493247</v>
       </c>
       <c r="AA37" t="n">
-        <v>0.3509254238999997</v>
+        <v>0.3509254238976496</v>
       </c>
       <c r="AB37" t="n">
-        <v>0.01265963683714876</v>
+        <v>0.01265963683771021</v>
       </c>
       <c r="AC37" t="n">
-        <v>0.06430073452323819</v>
+        <v>0.06430073452197393</v>
       </c>
       <c r="AD37" t="n">
-        <v>0.006895550469334686</v>
+        <v>0.006895550469267309</v>
       </c>
       <c r="AE37" t="n">
-        <v>0.3913400928000001</v>
+        <v>0.3913400928617961</v>
       </c>
       <c r="AF37" t="n">
-        <v>0.01300561713487638</v>
+        <v>0.01300561713461585</v>
       </c>
       <c r="AG37" t="n">
-        <v>0.1072976628446476</v>
+        <v>0.1072976628447024</v>
       </c>
       <c r="AH37" t="n">
-        <v>0.01516319759373594</v>
+        <v>0.01516319759342623</v>
       </c>
       <c r="AI37" t="n">
-        <v>0.5917145929999998</v>
+        <v>0.5917145930445855</v>
       </c>
       <c r="AJ37" t="n">
-        <v>0.02183540846803772</v>
+        <v>0.02183540846800879</v>
       </c>
     </row>
     <row r="38">
@@ -4471,100 +4471,100 @@
         <v>16</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0148189487</v>
+        <v>0.01481894869357347</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0004164112</v>
+        <v>0.0004164111742284149</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0871018767</v>
+        <v>0.08710187673568726</v>
       </c>
       <c r="H38" t="n">
-        <v>4.8332076073</v>
+        <v>4.833207607269287</v>
       </c>
       <c r="I38" t="n">
-        <v>0.018618172</v>
+        <v>0.01861817203462124</v>
       </c>
       <c r="J38" t="n">
-        <v>0.000821732</v>
+        <v>0.0008217319846153259</v>
       </c>
       <c r="K38" t="n">
-        <v>0.1591485143</v>
+        <v>0.1591485142707825</v>
       </c>
       <c r="L38" t="n">
-        <v>11.7967271805</v>
+        <v>11.79672718048096</v>
       </c>
       <c r="M38" t="n">
-        <v>0.06746456112195125</v>
+        <v>0.06746456112111159</v>
       </c>
       <c r="N38" t="n">
-        <v>0.008697732992990042</v>
+        <v>0.008697732993395371</v>
       </c>
       <c r="O38" t="n">
-        <v>0.3459549242</v>
+        <v>0.3459549242627418</v>
       </c>
       <c r="P38" t="n">
-        <v>0.01464229325030269</v>
+        <v>0.01464229325016305</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.1167897181939025</v>
+        <v>0.1167897181926217</v>
       </c>
       <c r="R38" t="n">
-        <v>0.02527688843585619</v>
+        <v>0.0252768884349198</v>
       </c>
       <c r="S38" t="n">
-        <v>0.5766277946000002</v>
+        <v>0.5766277946176785</v>
       </c>
       <c r="T38" t="n">
-        <v>0.02545796567051618</v>
+        <v>0.02545796567004883</v>
       </c>
       <c r="U38" t="n">
-        <v>0.08661340804634142</v>
+        <v>0.08661340804434495</v>
       </c>
       <c r="V38" t="n">
-        <v>0.01379700692702654</v>
+        <v>0.01379700692747293</v>
       </c>
       <c r="W38" t="n">
-        <v>0.3644352743999999</v>
+        <v>0.3644352743493471</v>
       </c>
       <c r="X38" t="n">
-        <v>0.0115955583905737</v>
+        <v>0.01159555839048647</v>
       </c>
       <c r="Y38" t="n">
-        <v>0.09948950046585361</v>
+        <v>0.09948950047132905</v>
       </c>
       <c r="Z38" t="n">
-        <v>0.01590847508879345</v>
+        <v>0.01590847508939822</v>
       </c>
       <c r="AA38" t="n">
-        <v>0.3662508074000002</v>
+        <v>0.366250807356522</v>
       </c>
       <c r="AB38" t="n">
-        <v>0.01391862731344204</v>
+        <v>0.01391862731428664</v>
       </c>
       <c r="AC38" t="n">
-        <v>0.06500609714264051</v>
+        <v>0.0650060971409236</v>
       </c>
       <c r="AD38" t="n">
-        <v>0.00702603654587912</v>
+        <v>0.007026036545703983</v>
       </c>
       <c r="AE38" t="n">
-        <v>0.3948308258000006</v>
+        <v>0.3948308258514288</v>
       </c>
       <c r="AF38" t="n">
-        <v>0.01313433028053512</v>
+        <v>0.01313433028019709</v>
       </c>
       <c r="AG38" t="n">
-        <v>0.1213766803070026</v>
+        <v>0.1213766803070248</v>
       </c>
       <c r="AH38" t="n">
-        <v>0.01854755512554034</v>
+        <v>0.01854755512516776</v>
       </c>
       <c r="AI38" t="n">
-        <v>0.5766277946000002</v>
+        <v>0.5766277946176785</v>
       </c>
       <c r="AJ38" t="n">
-        <v>0.02469354132229222</v>
+        <v>0.02469354132227546</v>
       </c>
     </row>
     <row r="39">
@@ -4583,100 +4583,100 @@
         <v>32</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0154739106</v>
+        <v>0.01547391060739756</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0004515132</v>
+        <v>0.00045151321683079</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0855107605</v>
+        <v>0.08551076054573059</v>
       </c>
       <c r="H39" t="n">
-        <v>5.4404478073</v>
+        <v>5.440447807312012</v>
       </c>
       <c r="I39" t="n">
-        <v>0.0168693792</v>
+        <v>0.01686937920749187</v>
       </c>
       <c r="J39" t="n">
-        <v>0.000714957</v>
+        <v>0.0007149569573812187</v>
       </c>
       <c r="K39" t="n">
-        <v>0.1539503336</v>
+        <v>0.1539503335952759</v>
       </c>
       <c r="L39" t="n">
-        <v>10.5329399109</v>
+        <v>10.53293991088867</v>
       </c>
       <c r="M39" t="n">
-        <v>0.06754865488292687</v>
+        <v>0.06754865488310195</v>
       </c>
       <c r="N39" t="n">
-        <v>0.00908071435706817</v>
+        <v>0.009080714357637068</v>
       </c>
       <c r="O39" t="n">
-        <v>0.3673362586</v>
+        <v>0.3673362586424247</v>
       </c>
       <c r="P39" t="n">
-        <v>0.01456117701581316</v>
+        <v>0.01456117701594317</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.1125129644707317</v>
+        <v>0.1125129644717501</v>
       </c>
       <c r="R39" t="n">
-        <v>0.02982570801950404</v>
+        <v>0.02982570801901182</v>
       </c>
       <c r="S39" t="n">
-        <v>0.6854813914000006</v>
+        <v>0.6854813914006712</v>
       </c>
       <c r="T39" t="n">
-        <v>0.02394085915738522</v>
+        <v>0.02394085915751463</v>
       </c>
       <c r="U39" t="n">
-        <v>0.0876605589768293</v>
+        <v>0.08766055897715229</v>
       </c>
       <c r="V39" t="n">
-        <v>0.01419794292130601</v>
+        <v>0.01419794292236921</v>
       </c>
       <c r="W39" t="n">
-        <v>0.3626997649000003</v>
+        <v>0.3626997648415511</v>
       </c>
       <c r="X39" t="n">
-        <v>0.01165041806248404</v>
+        <v>0.01165041806283084</v>
       </c>
       <c r="Y39" t="n">
-        <v>0.09699856545609761</v>
+        <v>0.09699856545445394</v>
       </c>
       <c r="Z39" t="n">
-        <v>0.01580815664097879</v>
+        <v>0.01580815664000513</v>
       </c>
       <c r="AA39" t="n">
-        <v>0.4111483636000006</v>
+        <v>0.4111483635460615</v>
       </c>
       <c r="AB39" t="n">
-        <v>0.01339620799272114</v>
+        <v>0.01339620799262825</v>
       </c>
       <c r="AC39" t="n">
-        <v>0.06324244249121322</v>
+        <v>0.06324244248960034</v>
       </c>
       <c r="AD39" t="n">
-        <v>0.00668417738888004</v>
+        <v>0.006684177388688956</v>
       </c>
       <c r="AE39" t="n">
-        <v>0.3902962719000005</v>
+        <v>0.3902962719259477</v>
       </c>
       <c r="AF39" t="n">
-        <v>0.0127549986947939</v>
+        <v>0.01275499869447544</v>
       </c>
       <c r="AG39" t="n">
-        <v>0.1088511898719447</v>
+        <v>0.1088511898716731</v>
       </c>
       <c r="AH39" t="n">
-        <v>0.01577691011397803</v>
+        <v>0.01577691011366814</v>
       </c>
       <c r="AI39" t="n">
-        <v>0.6854813914000006</v>
+        <v>0.6854813914006712</v>
       </c>
       <c r="AJ39" t="n">
-        <v>0.02211450058514797</v>
+        <v>0.02211450058507513</v>
       </c>
     </row>
     <row r="40">
@@ -4695,100 +4695,100 @@
         <v>64</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0156944245</v>
+        <v>0.01569442451000214</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0004292891</v>
+        <v>0.0004292890662327409</v>
       </c>
       <c r="G40" t="n">
-        <v>0.08418381210000001</v>
+        <v>0.08418381214141846</v>
       </c>
       <c r="H40" t="n">
-        <v>5.0393924713</v>
+        <v>5.039392471313477</v>
       </c>
       <c r="I40" t="n">
-        <v>0.0159250181</v>
+        <v>0.01592501811683178</v>
       </c>
       <c r="J40" t="n">
-        <v>0.0005767461</v>
+        <v>0.0005767461261712015</v>
       </c>
       <c r="K40" t="n">
-        <v>0.1477852464</v>
+        <v>0.1477852463722229</v>
       </c>
       <c r="L40" t="n">
-        <v>10.110004425</v>
+        <v>10.11000442504883</v>
       </c>
       <c r="M40" t="n">
-        <v>0.06653564358536591</v>
+        <v>0.06653564358186798</v>
       </c>
       <c r="N40" t="n">
-        <v>0.008697019901166973</v>
+        <v>0.008697019901965477</v>
       </c>
       <c r="O40" t="n">
-        <v>0.3435047832000002</v>
+        <v>0.3435047831959679</v>
       </c>
       <c r="P40" t="n">
-        <v>0.01437704185055615</v>
+        <v>0.01437704184978631</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.1315817190926828</v>
+        <v>0.131581719091801</v>
       </c>
       <c r="R40" t="n">
-        <v>0.03553413770790761</v>
+        <v>0.03553413770781852</v>
       </c>
       <c r="S40" t="n">
-        <v>0.7604633217000005</v>
+        <v>0.760463321716685</v>
       </c>
       <c r="T40" t="n">
-        <v>0.02785803623993897</v>
+        <v>0.02785803623966534</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08554916406341466</v>
+        <v>0.08554916406074173</v>
       </c>
       <c r="V40" t="n">
-        <v>0.01347699758030259</v>
+        <v>0.01347699758062316</v>
       </c>
       <c r="W40" t="n">
-        <v>0.3617246030000008</v>
+        <v>0.3617246029187413</v>
       </c>
       <c r="X40" t="n">
-        <v>0.01142241738798573</v>
+        <v>0.0114224173877772</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.08896002521341469</v>
+        <v>0.08896002521082362</v>
       </c>
       <c r="Z40" t="n">
-        <v>0.01344220053112872</v>
+        <v>0.01344220052985762</v>
       </c>
       <c r="AA40" t="n">
-        <v>0.3437597343000007</v>
+        <v>0.3437597342299341</v>
       </c>
       <c r="AB40" t="n">
-        <v>0.01224505427432916</v>
+        <v>0.01224505427404448</v>
       </c>
       <c r="AC40" t="n">
-        <v>0.06192690064817128</v>
+        <v>0.06192690064746289</v>
       </c>
       <c r="AD40" t="n">
-        <v>0.006398115269540327</v>
+        <v>0.006398115269449823</v>
       </c>
       <c r="AE40" t="n">
-        <v>0.3876493310000004</v>
+        <v>0.3876493310148703</v>
       </c>
       <c r="AF40" t="n">
-        <v>0.01248885657128759</v>
+        <v>0.01248885657115232</v>
       </c>
       <c r="AG40" t="n">
-        <v>0.1117723573658786</v>
+        <v>0.111772357366697</v>
       </c>
       <c r="AH40" t="n">
-        <v>0.01647785816199072</v>
+        <v>0.01647785816185178</v>
       </c>
       <c r="AI40" t="n">
-        <v>0.7604633217000005</v>
+        <v>0.760463321716685</v>
       </c>
       <c r="AJ40" t="n">
-        <v>0.02272889601456433</v>
+        <v>0.02272889601472434</v>
       </c>
     </row>
     <row r="41">
@@ -4807,100 +4807,100 @@
         <v>96</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0161254369</v>
+        <v>0.01612543687224388</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0004827734</v>
+        <v>0.0004827734082937241</v>
       </c>
       <c r="G41" t="n">
-        <v>0.1061091125</v>
+        <v>0.1061091125011444</v>
       </c>
       <c r="H41" t="n">
-        <v>5.3187298775</v>
+        <v>5.318729877471924</v>
       </c>
       <c r="I41" t="n">
-        <v>0.0205759816</v>
+        <v>0.02057598158717155</v>
       </c>
       <c r="J41" t="n">
-        <v>0.0009926881000000001</v>
+        <v>0.0009926881175488234</v>
       </c>
       <c r="K41" t="n">
-        <v>0.1747274399</v>
+        <v>0.1747274398803711</v>
       </c>
       <c r="L41" t="n">
-        <v>14.0289888382</v>
+        <v>14.0289888381958</v>
       </c>
       <c r="M41" t="n">
-        <v>0.07444187426341463</v>
+        <v>0.07444187425627118</v>
       </c>
       <c r="N41" t="n">
-        <v>0.01055196466529608</v>
+        <v>0.0105519646638001</v>
       </c>
       <c r="O41" t="n">
-        <v>0.4242608685000002</v>
+        <v>0.4242608685293021</v>
       </c>
       <c r="P41" t="n">
-        <v>0.0161533696929656</v>
+        <v>0.01615336969132296</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.1282499552987805</v>
+        <v>0.1282499552958985</v>
       </c>
       <c r="R41" t="n">
-        <v>0.03746960251724715</v>
+        <v>0.03746960251600263</v>
       </c>
       <c r="S41" t="n">
-        <v>0.6487656115</v>
+        <v>0.6487656114737916</v>
       </c>
       <c r="T41" t="n">
-        <v>0.02930170675952837</v>
+        <v>0.02930170675881541</v>
       </c>
       <c r="U41" t="n">
-        <v>0.09053138744512196</v>
+        <v>0.09053138744756849</v>
       </c>
       <c r="V41" t="n">
-        <v>0.01651683867363462</v>
+        <v>0.01651683867536988</v>
       </c>
       <c r="W41" t="n">
-        <v>0.4168078256999994</v>
+        <v>0.4168078256613796</v>
       </c>
       <c r="X41" t="n">
-        <v>0.0118803537142524</v>
+        <v>0.01188035371497087</v>
       </c>
       <c r="Y41" t="n">
-        <v>0.1732818563768292</v>
+        <v>0.1732818563728552</v>
       </c>
       <c r="Z41" t="n">
-        <v>0.04326476548738586</v>
+        <v>0.04326476548636007</v>
       </c>
       <c r="AA41" t="n">
-        <v>0.520778645</v>
+        <v>0.5207786449601883</v>
       </c>
       <c r="AB41" t="n">
-        <v>0.02209302400966938</v>
+        <v>0.02209302400901611</v>
       </c>
       <c r="AC41" t="n">
-        <v>0.05976369129103479</v>
+        <v>0.0597636912890572</v>
       </c>
       <c r="AD41" t="n">
-        <v>0.005953484664470454</v>
+        <v>0.005953484664205113</v>
       </c>
       <c r="AE41" t="n">
-        <v>0.4242608685000002</v>
+        <v>0.4242608685293021</v>
       </c>
       <c r="AF41" t="n">
-        <v>0.01198766450368917</v>
+        <v>0.01198766450328915</v>
       </c>
       <c r="AG41" t="n">
-        <v>0.07628948176302409</v>
+        <v>0.07628948176384816</v>
       </c>
       <c r="AH41" t="n">
-        <v>0.009305095789038856</v>
+        <v>0.009305095788885913</v>
       </c>
       <c r="AI41" t="n">
-        <v>0.6487656115</v>
+        <v>0.6487656114737916</v>
       </c>
       <c r="AJ41" t="n">
-        <v>0.01510741225142839</v>
+        <v>0.01510741225159347</v>
       </c>
     </row>
     <row r="42">
@@ -4919,100 +4919,100 @@
         <v>128</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0161254369</v>
+        <v>0.01612543687224388</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0004827734</v>
+        <v>0.0004827734082937241</v>
       </c>
       <c r="G42" t="n">
-        <v>0.1061091125</v>
+        <v>0.1061091125011444</v>
       </c>
       <c r="H42" t="n">
-        <v>5.3187298775</v>
+        <v>5.318729877471924</v>
       </c>
       <c r="I42" t="n">
-        <v>0.0205759816</v>
+        <v>0.02057598158717155</v>
       </c>
       <c r="J42" t="n">
-        <v>0.0009926881000000001</v>
+        <v>0.0009926881175488234</v>
       </c>
       <c r="K42" t="n">
-        <v>0.1747274399</v>
+        <v>0.1747274398803711</v>
       </c>
       <c r="L42" t="n">
-        <v>14.0289888382</v>
+        <v>14.0289888381958</v>
       </c>
       <c r="M42" t="n">
-        <v>0.07444187426341463</v>
+        <v>0.07444187425627118</v>
       </c>
       <c r="N42" t="n">
-        <v>0.01055196466529608</v>
+        <v>0.0105519646638001</v>
       </c>
       <c r="O42" t="n">
-        <v>0.4242608685000002</v>
+        <v>0.4242608685293021</v>
       </c>
       <c r="P42" t="n">
-        <v>0.0161533696929656</v>
+        <v>0.01615336969132296</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.1282499552987805</v>
+        <v>0.1282499552958985</v>
       </c>
       <c r="R42" t="n">
-        <v>0.03746960251724715</v>
+        <v>0.03746960251600263</v>
       </c>
       <c r="S42" t="n">
-        <v>0.6487656115</v>
+        <v>0.6487656114737916</v>
       </c>
       <c r="T42" t="n">
-        <v>0.02930170675952837</v>
+        <v>0.02930170675881541</v>
       </c>
       <c r="U42" t="n">
-        <v>0.09053138744512196</v>
+        <v>0.09053138744756849</v>
       </c>
       <c r="V42" t="n">
-        <v>0.01651683867363462</v>
+        <v>0.01651683867536988</v>
       </c>
       <c r="W42" t="n">
-        <v>0.4168078256999994</v>
+        <v>0.4168078256613796</v>
       </c>
       <c r="X42" t="n">
-        <v>0.0118803537142524</v>
+        <v>0.01188035371497087</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.1732818563768292</v>
+        <v>0.1732818563728552</v>
       </c>
       <c r="Z42" t="n">
-        <v>0.04326476548738586</v>
+        <v>0.04326476548636007</v>
       </c>
       <c r="AA42" t="n">
-        <v>0.520778645</v>
+        <v>0.5207786449601883</v>
       </c>
       <c r="AB42" t="n">
-        <v>0.02209302400966938</v>
+        <v>0.02209302400901611</v>
       </c>
       <c r="AC42" t="n">
-        <v>0.05976369129103479</v>
+        <v>0.0597636912890572</v>
       </c>
       <c r="AD42" t="n">
-        <v>0.005953484664470454</v>
+        <v>0.005953484664205113</v>
       </c>
       <c r="AE42" t="n">
-        <v>0.4242608685000002</v>
+        <v>0.4242608685293021</v>
       </c>
       <c r="AF42" t="n">
-        <v>0.01198766450368917</v>
+        <v>0.01198766450328915</v>
       </c>
       <c r="AG42" t="n">
-        <v>0.07628948176302409</v>
+        <v>0.07628948176384816</v>
       </c>
       <c r="AH42" t="n">
-        <v>0.009305095789038856</v>
+        <v>0.009305095788885913</v>
       </c>
       <c r="AI42" t="n">
-        <v>0.6487656115</v>
+        <v>0.6487656114737916</v>
       </c>
       <c r="AJ42" t="n">
-        <v>0.01510741225142839</v>
+        <v>0.01510741225159347</v>
       </c>
     </row>
     <row r="43">
@@ -5031,100 +5031,100 @@
         <v>160</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0161254369</v>
+        <v>0.01612543687224388</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0004827734</v>
+        <v>0.0004827734082937241</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1061091125</v>
+        <v>0.1061091125011444</v>
       </c>
       <c r="H43" t="n">
-        <v>5.3187298775</v>
+        <v>5.318729877471924</v>
       </c>
       <c r="I43" t="n">
-        <v>0.0205759816</v>
+        <v>0.02057598158717155</v>
       </c>
       <c r="J43" t="n">
-        <v>0.0009926881000000001</v>
+        <v>0.0009926881175488234</v>
       </c>
       <c r="K43" t="n">
-        <v>0.1747274399</v>
+        <v>0.1747274398803711</v>
       </c>
       <c r="L43" t="n">
-        <v>14.0289888382</v>
+        <v>14.0289888381958</v>
       </c>
       <c r="M43" t="n">
-        <v>0.07444187426341463</v>
+        <v>0.07444187425627118</v>
       </c>
       <c r="N43" t="n">
-        <v>0.01055196466529608</v>
+        <v>0.0105519646638001</v>
       </c>
       <c r="O43" t="n">
-        <v>0.4242608685000002</v>
+        <v>0.4242608685293021</v>
       </c>
       <c r="P43" t="n">
-        <v>0.0161533696929656</v>
+        <v>0.01615336969132296</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.1282499552987805</v>
+        <v>0.1282499552958985</v>
       </c>
       <c r="R43" t="n">
-        <v>0.03746960251724715</v>
+        <v>0.03746960251600263</v>
       </c>
       <c r="S43" t="n">
-        <v>0.6487656115</v>
+        <v>0.6487656114737916</v>
       </c>
       <c r="T43" t="n">
-        <v>0.02930170675952837</v>
+        <v>0.02930170675881541</v>
       </c>
       <c r="U43" t="n">
-        <v>0.09053138744512196</v>
+        <v>0.09053138744756849</v>
       </c>
       <c r="V43" t="n">
-        <v>0.01651683867363462</v>
+        <v>0.01651683867536988</v>
       </c>
       <c r="W43" t="n">
-        <v>0.4168078256999994</v>
+        <v>0.4168078256613796</v>
       </c>
       <c r="X43" t="n">
-        <v>0.0118803537142524</v>
+        <v>0.01188035371497087</v>
       </c>
       <c r="Y43" t="n">
-        <v>0.1732818563768292</v>
+        <v>0.1732818563728552</v>
       </c>
       <c r="Z43" t="n">
-        <v>0.04326476548738586</v>
+        <v>0.04326476548636007</v>
       </c>
       <c r="AA43" t="n">
-        <v>0.520778645</v>
+        <v>0.5207786449601883</v>
       </c>
       <c r="AB43" t="n">
-        <v>0.02209302400966938</v>
+        <v>0.02209302400901611</v>
       </c>
       <c r="AC43" t="n">
-        <v>0.05976369129103479</v>
+        <v>0.0597636912890572</v>
       </c>
       <c r="AD43" t="n">
-        <v>0.005953484664470454</v>
+        <v>0.005953484664205113</v>
       </c>
       <c r="AE43" t="n">
-        <v>0.4242608685000002</v>
+        <v>0.4242608685293021</v>
       </c>
       <c r="AF43" t="n">
-        <v>0.01198766450368917</v>
+        <v>0.01198766450328915</v>
       </c>
       <c r="AG43" t="n">
-        <v>0.07628948176302409</v>
+        <v>0.07628948176384816</v>
       </c>
       <c r="AH43" t="n">
-        <v>0.009305095789038856</v>
+        <v>0.009305095788885913</v>
       </c>
       <c r="AI43" t="n">
-        <v>0.6487656115</v>
+        <v>0.6487656114737916</v>
       </c>
       <c r="AJ43" t="n">
-        <v>0.01510741225142839</v>
+        <v>0.01510741225159347</v>
       </c>
     </row>
     <row r="44">
@@ -5143,100 +5143,100 @@
         <v>192</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0161254369</v>
+        <v>0.01612543687224388</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0004827734</v>
+        <v>0.0004827734082937241</v>
       </c>
       <c r="G44" t="n">
-        <v>0.1061091125</v>
+        <v>0.1061091125011444</v>
       </c>
       <c r="H44" t="n">
-        <v>5.3187298775</v>
+        <v>5.318729877471924</v>
       </c>
       <c r="I44" t="n">
-        <v>0.0205759816</v>
+        <v>0.02057598158717155</v>
       </c>
       <c r="J44" t="n">
-        <v>0.0009926881000000001</v>
+        <v>0.0009926881175488234</v>
       </c>
       <c r="K44" t="n">
-        <v>0.1747274399</v>
+        <v>0.1747274398803711</v>
       </c>
       <c r="L44" t="n">
-        <v>14.0289888382</v>
+        <v>14.0289888381958</v>
       </c>
       <c r="M44" t="n">
-        <v>0.07444187426341463</v>
+        <v>0.07444187425627118</v>
       </c>
       <c r="N44" t="n">
-        <v>0.01055196466529608</v>
+        <v>0.0105519646638001</v>
       </c>
       <c r="O44" t="n">
-        <v>0.4242608685000002</v>
+        <v>0.4242608685293021</v>
       </c>
       <c r="P44" t="n">
-        <v>0.0161533696929656</v>
+        <v>0.01615336969132296</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.1282499552987805</v>
+        <v>0.1282499552958985</v>
       </c>
       <c r="R44" t="n">
-        <v>0.03746960251724715</v>
+        <v>0.03746960251600263</v>
       </c>
       <c r="S44" t="n">
-        <v>0.6487656115</v>
+        <v>0.6487656114737916</v>
       </c>
       <c r="T44" t="n">
-        <v>0.02930170675952837</v>
+        <v>0.02930170675881541</v>
       </c>
       <c r="U44" t="n">
-        <v>0.09053138744512196</v>
+        <v>0.09053138744756849</v>
       </c>
       <c r="V44" t="n">
-        <v>0.01651683867363462</v>
+        <v>0.01651683867536988</v>
       </c>
       <c r="W44" t="n">
-        <v>0.4168078256999994</v>
+        <v>0.4168078256613796</v>
       </c>
       <c r="X44" t="n">
-        <v>0.0118803537142524</v>
+        <v>0.01188035371497087</v>
       </c>
       <c r="Y44" t="n">
-        <v>0.1732818563768292</v>
+        <v>0.1732818563728552</v>
       </c>
       <c r="Z44" t="n">
-        <v>0.04326476548738586</v>
+        <v>0.04326476548636007</v>
       </c>
       <c r="AA44" t="n">
-        <v>0.520778645</v>
+        <v>0.5207786449601883</v>
       </c>
       <c r="AB44" t="n">
-        <v>0.02209302400966938</v>
+        <v>0.02209302400901611</v>
       </c>
       <c r="AC44" t="n">
-        <v>0.05976369129103479</v>
+        <v>0.0597636912890572</v>
       </c>
       <c r="AD44" t="n">
-        <v>0.005953484664470454</v>
+        <v>0.005953484664205113</v>
       </c>
       <c r="AE44" t="n">
-        <v>0.4242608685000002</v>
+        <v>0.4242608685293021</v>
       </c>
       <c r="AF44" t="n">
-        <v>0.01198766450368917</v>
+        <v>0.01198766450328915</v>
       </c>
       <c r="AG44" t="n">
-        <v>0.07628948176302409</v>
+        <v>0.07628948176384816</v>
       </c>
       <c r="AH44" t="n">
-        <v>0.009305095789038856</v>
+        <v>0.009305095788885913</v>
       </c>
       <c r="AI44" t="n">
-        <v>0.6487656115</v>
+        <v>0.6487656114737916</v>
       </c>
       <c r="AJ44" t="n">
-        <v>0.01510741225142839</v>
+        <v>0.01510741225159347</v>
       </c>
     </row>
     <row r="45">
@@ -5255,100 +5255,100 @@
         <v>8</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0125469239</v>
+        <v>0.01254692394286394</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0002715813</v>
+        <v>0.0002715813170652837</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0609151423</v>
+        <v>0.06091514229774475</v>
       </c>
       <c r="H45" t="n">
-        <v>4.2522463799</v>
+        <v>4.252246379852295</v>
       </c>
       <c r="I45" t="n">
-        <v>0.0164460037</v>
+        <v>0.01644600369036198</v>
       </c>
       <c r="J45" t="n">
-        <v>0.0006368058</v>
+        <v>0.0006368058384396136</v>
       </c>
       <c r="K45" t="n">
-        <v>0.1396930218</v>
+        <v>0.139693021774292</v>
       </c>
       <c r="L45" t="n">
-        <v>9.7528800964</v>
+        <v>9.752880096435547</v>
       </c>
       <c r="M45" t="n">
-        <v>0.0769071878926829</v>
+        <v>0.07690718789245538</v>
       </c>
       <c r="N45" t="n">
-        <v>0.0117487035381204</v>
+        <v>0.01174870353774202</v>
       </c>
       <c r="O45" t="n">
-        <v>0.4416084858999998</v>
+        <v>0.4416084858929707</v>
       </c>
       <c r="P45" t="n">
-        <v>0.01642525693854102</v>
+        <v>0.01642525693851681</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.08249563368780492</v>
+        <v>0.08249563368528216</v>
       </c>
       <c r="R45" t="n">
-        <v>0.01329800604946805</v>
+        <v>0.01329800605022018</v>
       </c>
       <c r="S45" t="n">
-        <v>0.4683047756000001</v>
+        <v>0.4683047756532659</v>
       </c>
       <c r="T45" t="n">
-        <v>0.01747194256569466</v>
+        <v>0.01747194256514461</v>
       </c>
       <c r="U45" t="n">
-        <v>0.08139310754146346</v>
+        <v>0.08139310753859054</v>
       </c>
       <c r="V45" t="n">
-        <v>0.0122202061809655</v>
+        <v>0.01222020618187299</v>
       </c>
       <c r="W45" t="n">
-        <v>0.3571652366000002</v>
+        <v>0.3571652365776572</v>
       </c>
       <c r="X45" t="n">
-        <v>0.01107562003187239</v>
+        <v>0.0110756200313971</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.08577865001707316</v>
+        <v>0.08577865001899387</v>
       </c>
       <c r="Z45" t="n">
-        <v>0.0130994890925908</v>
+        <v>0.01309948909245412</v>
       </c>
       <c r="AA45" t="n">
-        <v>0.3549841232999995</v>
+        <v>0.354984123277319</v>
       </c>
       <c r="AB45" t="n">
-        <v>0.01166743007234584</v>
+        <v>0.0116674300726526</v>
       </c>
       <c r="AC45" t="n">
-        <v>0.05623596491088314</v>
+        <v>0.05623596491013245</v>
       </c>
       <c r="AD45" t="n">
-        <v>0.005035518689101483</v>
+        <v>0.005035518688916392</v>
       </c>
       <c r="AE45" t="n">
-        <v>0.4416084858999998</v>
+        <v>0.4416084858929707</v>
       </c>
       <c r="AF45" t="n">
-        <v>0.01127756182056651</v>
+        <v>0.01127756182042475</v>
       </c>
       <c r="AG45" t="n">
-        <v>0.06157823141632471</v>
+        <v>0.06157823141530418</v>
       </c>
       <c r="AH45" t="n">
-        <v>0.005825965529407246</v>
+        <v>0.005825965529194129</v>
       </c>
       <c r="AI45" t="n">
-        <v>0.4683047756000001</v>
+        <v>0.4683047756532659</v>
       </c>
       <c r="AJ45" t="n">
-        <v>0.01232419240497261</v>
+        <v>0.01232419240475997</v>
       </c>
     </row>
     <row r="46">
@@ -5367,100 +5367,100 @@
         <v>16</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0153946253</v>
+        <v>0.01539462525397539</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0004253215</v>
+        <v>0.0004253214574418962</v>
       </c>
       <c r="G46" t="n">
-        <v>0.09427660700000001</v>
+        <v>0.09427660703659058</v>
       </c>
       <c r="H46" t="n">
-        <v>5.0661897659</v>
+        <v>5.066189765930176</v>
       </c>
       <c r="I46" t="n">
-        <v>0.0176613051</v>
+        <v>0.01766130514442921</v>
       </c>
       <c r="J46" t="n">
-        <v>0.0007576992</v>
+        <v>0.0007576991920359433</v>
       </c>
       <c r="K46" t="n">
-        <v>0.1527045965</v>
+        <v>0.1527045965194702</v>
       </c>
       <c r="L46" t="n">
-        <v>11.2509622574</v>
+        <v>11.25096225738525</v>
       </c>
       <c r="M46" t="n">
-        <v>0.09228747983170729</v>
+        <v>0.09228747983754375</v>
       </c>
       <c r="N46" t="n">
-        <v>0.01442383993251522</v>
+        <v>0.01442383993472275</v>
       </c>
       <c r="O46" t="n">
-        <v>0.3522805606999997</v>
+        <v>0.3522805607090476</v>
       </c>
       <c r="P46" t="n">
-        <v>0.01973177327049733</v>
+        <v>0.01973177327164006</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.2279691950231707</v>
+        <v>0.227969195024125</v>
       </c>
       <c r="R46" t="n">
-        <v>0.06732081571219886</v>
+        <v>0.06732081571422091</v>
       </c>
       <c r="S46" t="n">
-        <v>0.5915349579000004</v>
+        <v>0.5915349579535416</v>
       </c>
       <c r="T46" t="n">
-        <v>0.04762246371660417</v>
+        <v>0.04762246371661445</v>
       </c>
       <c r="U46" t="n">
-        <v>0.09314314101585364</v>
+        <v>0.09314314101260274</v>
       </c>
       <c r="V46" t="n">
-        <v>0.01411598180870034</v>
+        <v>0.01411598180925487</v>
       </c>
       <c r="W46" t="n">
-        <v>0.3529967507999991</v>
+        <v>0.352996750756347</v>
       </c>
       <c r="X46" t="n">
-        <v>0.01320552559466187</v>
+        <v>0.01320552559439055</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.1268116503719512</v>
+        <v>0.1268116503712168</v>
       </c>
       <c r="Z46" t="n">
-        <v>0.0254101401328</v>
+        <v>0.02541014013161672</v>
       </c>
       <c r="AA46" t="n">
-        <v>0.3689675752000001</v>
+        <v>0.368967575215521</v>
       </c>
       <c r="AB46" t="n">
-        <v>0.02020181480706438</v>
+        <v>0.02020181480682303</v>
       </c>
       <c r="AC46" t="n">
-        <v>0.1007980792704282</v>
+        <v>0.1007980792698589</v>
       </c>
       <c r="AD46" t="n">
-        <v>0.01418714760064449</v>
+        <v>0.01418714760048511</v>
       </c>
       <c r="AE46" t="n">
-        <v>0.4424699840000006</v>
+        <v>0.4424699840170518</v>
       </c>
       <c r="AF46" t="n">
-        <v>0.02048493839160735</v>
+        <v>0.02048493839149433</v>
       </c>
       <c r="AG46" t="n">
-        <v>0.280291366123372</v>
+        <v>0.2802913661214019</v>
       </c>
       <c r="AH46" t="n">
-        <v>0.08378233848889581</v>
+        <v>0.08378233848770127</v>
       </c>
       <c r="AI46" t="n">
-        <v>0.6088522262999998</v>
+        <v>0.608852226343231</v>
       </c>
       <c r="AJ46" t="n">
-        <v>0.05708935310379711</v>
+        <v>0.05708935310337414</v>
       </c>
     </row>
     <row r="47">
@@ -5479,100 +5479,100 @@
         <v>32</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0128931403</v>
+        <v>0.01289314031600952</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0002846095</v>
+        <v>0.0002846094721462578</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0694528818</v>
+        <v>0.06945288181304932</v>
       </c>
       <c r="H47" t="n">
-        <v>4.6490197182</v>
+        <v>4.649019718170166</v>
       </c>
       <c r="I47" t="n">
-        <v>0.0155352764</v>
+        <v>0.01553527638316154</v>
       </c>
       <c r="J47" t="n">
-        <v>0.0005257552</v>
+        <v>0.0005257551674731076</v>
       </c>
       <c r="K47" t="n">
-        <v>0.1160475016</v>
+        <v>0.1160475015640259</v>
       </c>
       <c r="L47" t="n">
-        <v>10.4582872391</v>
+        <v>10.45828723907471</v>
       </c>
       <c r="M47" t="n">
-        <v>0.09390155257560981</v>
+        <v>0.09390155257560256</v>
       </c>
       <c r="N47" t="n">
-        <v>0.01635848619477527</v>
+        <v>0.01635848619662173</v>
       </c>
       <c r="O47" t="n">
-        <v>0.5028044001000005</v>
+        <v>0.5028044001726641</v>
       </c>
       <c r="P47" t="n">
-        <v>0.01997467515318332</v>
+        <v>0.01997467515321402</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.1441024919670732</v>
+        <v>0.1441024919656689</v>
       </c>
       <c r="R47" t="n">
-        <v>0.03749345742446057</v>
+        <v>0.03749345742380144</v>
       </c>
       <c r="S47" t="n">
-        <v>0.6358619985000002</v>
+        <v>0.6358619985322633</v>
       </c>
       <c r="T47" t="n">
-        <v>0.030575496282198</v>
+        <v>0.03057549628207167</v>
       </c>
       <c r="U47" t="n">
-        <v>0.09093364435975607</v>
+        <v>0.09093364435312501</v>
       </c>
       <c r="V47" t="n">
-        <v>0.01397599656016891</v>
+        <v>0.01397599655889941</v>
       </c>
       <c r="W47" t="n">
-        <v>0.3589123026000003</v>
+        <v>0.3589123025529943</v>
       </c>
       <c r="X47" t="n">
-        <v>0.01301796197138342</v>
+        <v>0.01301796197044234</v>
       </c>
       <c r="Y47" t="n">
-        <v>0.1363946378682928</v>
+        <v>0.136394637867805</v>
       </c>
       <c r="Z47" t="n">
-        <v>0.02863691977234806</v>
+        <v>0.02863691977035517</v>
       </c>
       <c r="AA47" t="n">
-        <v>0.4131933939000003</v>
+        <v>0.4131933939130619</v>
       </c>
       <c r="AB47" t="n">
-        <v>0.02112121323206319</v>
+        <v>0.02112121323183195</v>
       </c>
       <c r="AC47" t="n">
-        <v>0.0964978367719893</v>
+        <v>0.0964978367720421</v>
       </c>
       <c r="AD47" t="n">
-        <v>0.01259401506548301</v>
+        <v>0.01259401506550873</v>
       </c>
       <c r="AE47" t="n">
-        <v>0.5028044001000005</v>
+        <v>0.5028044001726641</v>
       </c>
       <c r="AF47" t="n">
-        <v>0.01939803805405566</v>
+        <v>0.01939803805408614</v>
       </c>
       <c r="AG47" t="n">
-        <v>1.845650945908965</v>
+        <v>1.845650945908836</v>
       </c>
       <c r="AH47" t="n">
-        <v>3.650434695866504</v>
+        <v>3.650434695865534</v>
       </c>
       <c r="AI47" t="n">
-        <v>2.2846001621</v>
+        <v>2.284600162070788</v>
       </c>
       <c r="AJ47" t="n">
-        <v>0.3754006290242347</v>
+        <v>0.3754006290241814</v>
       </c>
     </row>
     <row r="48">
@@ -5591,100 +5591,100 @@
         <v>64</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0124616884</v>
+        <v>0.01246168836951256</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0002779265</v>
+        <v>0.0002779264759737998</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0679052472</v>
+        <v>0.0679052472114563</v>
       </c>
       <c r="H48" t="n">
-        <v>3.9550230503</v>
+        <v>3.955023050308228</v>
       </c>
       <c r="I48" t="n">
-        <v>0.0133317076</v>
+        <v>0.01333170756697655</v>
       </c>
       <c r="J48" t="n">
-        <v>0.0003787371</v>
+        <v>0.0003787370806094259</v>
       </c>
       <c r="K48" t="n">
-        <v>0.1165373325</v>
+        <v>0.11653733253479</v>
       </c>
       <c r="L48" t="n">
-        <v>11.5557003021</v>
+        <v>11.55570030212402</v>
       </c>
       <c r="M48" t="n">
-        <v>0.0806360645804878</v>
+        <v>0.08063606457547656</v>
       </c>
       <c r="N48" t="n">
-        <v>0.01151847068378098</v>
+        <v>0.01151847068287284</v>
       </c>
       <c r="O48" t="n">
-        <v>0.3951350013999999</v>
+        <v>0.3951350014165342</v>
       </c>
       <c r="P48" t="n">
-        <v>0.01723819742622324</v>
+        <v>0.01723819742529321</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.1473634142902439</v>
+        <v>0.1473634142832291</v>
       </c>
       <c r="R48" t="n">
-        <v>0.03001222990275312</v>
+        <v>0.03001222990177765</v>
       </c>
       <c r="S48" t="n">
-        <v>0.3545570148000001</v>
+        <v>0.3545570148666002</v>
       </c>
       <c r="T48" t="n">
-        <v>0.03130698669999966</v>
+        <v>0.03130698669824275</v>
       </c>
       <c r="U48" t="n">
-        <v>0.08426662134390249</v>
+        <v>0.08426662135170164</v>
       </c>
       <c r="V48" t="n">
-        <v>0.01260106103432806</v>
+        <v>0.01260106103550697</v>
       </c>
       <c r="W48" t="n">
-        <v>0.3532720666000007</v>
+        <v>0.3532720666007094</v>
       </c>
       <c r="X48" t="n">
-        <v>0.01162797492039579</v>
+        <v>0.01162797492153698</v>
       </c>
       <c r="Y48" t="n">
-        <v>0.1099583890195123</v>
+        <v>0.1099583890200714</v>
       </c>
       <c r="Z48" t="n">
-        <v>0.01879003544841152</v>
+        <v>0.01879003544717648</v>
       </c>
       <c r="AA48" t="n">
-        <v>0.3657248402000004</v>
+        <v>0.3657248401684967</v>
       </c>
       <c r="AB48" t="n">
-        <v>0.01614942559559062</v>
+        <v>0.01614942559557144</v>
       </c>
       <c r="AC48" t="n">
-        <v>0.07179011435521855</v>
+        <v>0.07179011435556362</v>
       </c>
       <c r="AD48" t="n">
-        <v>0.007545101720156704</v>
+        <v>0.007545101720087806</v>
       </c>
       <c r="AE48" t="n">
-        <v>0.3951350013999999</v>
+        <v>0.3951350014165342</v>
       </c>
       <c r="AF48" t="n">
-        <v>0.01439532385291613</v>
+        <v>0.01439532385297889</v>
       </c>
       <c r="AG48" t="n">
-        <v>0.3582743173037466</v>
+        <v>0.3582743173044436</v>
       </c>
       <c r="AH48" t="n">
-        <v>0.1359421509496164</v>
+        <v>0.1359421509500603</v>
       </c>
       <c r="AI48" t="n">
-        <v>0.5617926813999992</v>
+        <v>0.5617926814087539</v>
       </c>
       <c r="AJ48" t="n">
-        <v>0.07266121008145505</v>
+        <v>0.07266121008158971</v>
       </c>
     </row>
     <row r="49">
@@ -5703,100 +5703,100 @@
         <v>96</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0160168987</v>
+        <v>0.01601689867675304</v>
       </c>
       <c r="F49" t="n">
-        <v>0.0005104067000000001</v>
+        <v>0.0005104066804051399</v>
       </c>
       <c r="G49" t="n">
-        <v>0.1192003489</v>
+        <v>0.1192003488540649</v>
       </c>
       <c r="H49" t="n">
-        <v>5.2765927315</v>
+        <v>5.27659273147583</v>
       </c>
       <c r="I49" t="n">
-        <v>0.0208414979</v>
+        <v>0.02084149792790413</v>
       </c>
       <c r="J49" t="n">
-        <v>0.0010848654</v>
+        <v>0.001084865420125425</v>
       </c>
       <c r="K49" t="n">
-        <v>0.2013890147</v>
+        <v>0.2013890147209167</v>
       </c>
       <c r="L49" t="n">
-        <v>15.4517097473</v>
+        <v>15.45170974731445</v>
       </c>
       <c r="M49" t="n">
-        <v>0.08417649927317074</v>
+        <v>0.08417649927337492</v>
       </c>
       <c r="N49" t="n">
-        <v>0.01372336420526447</v>
+        <v>0.01372336420591155</v>
       </c>
       <c r="O49" t="n">
-        <v>0.4813826181000005</v>
+        <v>0.4813826181565872</v>
       </c>
       <c r="P49" t="n">
-        <v>0.01876877703528106</v>
+        <v>0.01876877703517937</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.2116728901780488</v>
+        <v>0.2116728901782717</v>
       </c>
       <c r="R49" t="n">
-        <v>0.06856634939178997</v>
+        <v>0.06856634939155554</v>
       </c>
       <c r="S49" t="n">
-        <v>0.7492819632999996</v>
+        <v>0.7492819632950543</v>
       </c>
       <c r="T49" t="n">
-        <v>0.04942764072058955</v>
+        <v>0.0494276407206755</v>
       </c>
       <c r="U49" t="n">
-        <v>0.08807165639024389</v>
+        <v>0.08807165639877973</v>
       </c>
       <c r="V49" t="n">
-        <v>0.01535122657201172</v>
+        <v>0.01535122657328425</v>
       </c>
       <c r="W49" t="n">
-        <v>0.4063053760000006</v>
+        <v>0.4063053759392119</v>
       </c>
       <c r="X49" t="n">
-        <v>0.01159227014989241</v>
+        <v>0.011592270150957</v>
       </c>
       <c r="Y49" t="n">
-        <v>0.2049117815573171</v>
+        <v>0.204911781558953</v>
       </c>
       <c r="Z49" t="n">
-        <v>0.06553514063946492</v>
+        <v>0.06553514064158024</v>
       </c>
       <c r="AA49" t="n">
-        <v>0.6462101643999993</v>
+        <v>0.6462101643789993</v>
       </c>
       <c r="AB49" t="n">
-        <v>0.02553651305890697</v>
+        <v>0.02553651305925761</v>
       </c>
       <c r="AC49" t="n">
-        <v>0.0571251856324264</v>
+        <v>0.05712518563127597</v>
       </c>
       <c r="AD49" t="n">
-        <v>0.005724132357170831</v>
+        <v>0.005724132357147475</v>
       </c>
       <c r="AE49" t="n">
-        <v>0.4813826181000005</v>
+        <v>0.4813826181565872</v>
       </c>
       <c r="AF49" t="n">
-        <v>0.01152132656376961</v>
+        <v>0.01152132656350697</v>
       </c>
       <c r="AG49" t="n">
-        <v>0.1947562618727476</v>
+        <v>0.1947562618728877</v>
       </c>
       <c r="AH49" t="n">
-        <v>0.0428254157078834</v>
+        <v>0.04282541570764936</v>
       </c>
       <c r="AI49" t="n">
-        <v>0.7492819632999996</v>
+        <v>0.7492819632950543</v>
       </c>
       <c r="AJ49" t="n">
-        <v>0.03946122824933711</v>
+        <v>0.03946122824934953</v>
       </c>
     </row>
     <row r="50">
@@ -5815,100 +5815,100 @@
         <v>128</v>
       </c>
       <c r="E50" t="n">
-        <v>0.0160168987</v>
+        <v>0.01601689867675304</v>
       </c>
       <c r="F50" t="n">
-        <v>0.0005104067000000001</v>
+        <v>0.0005104066804051399</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1192003489</v>
+        <v>0.1192003488540649</v>
       </c>
       <c r="H50" t="n">
-        <v>5.2765927315</v>
+        <v>5.27659273147583</v>
       </c>
       <c r="I50" t="n">
-        <v>0.0208414979</v>
+        <v>0.02084149792790413</v>
       </c>
       <c r="J50" t="n">
-        <v>0.0010848654</v>
+        <v>0.001084865420125425</v>
       </c>
       <c r="K50" t="n">
-        <v>0.2013890147</v>
+        <v>0.2013890147209167</v>
       </c>
       <c r="L50" t="n">
-        <v>15.4517097473</v>
+        <v>15.45170974731445</v>
       </c>
       <c r="M50" t="n">
-        <v>0.08417649927317074</v>
+        <v>0.08417649927337492</v>
       </c>
       <c r="N50" t="n">
-        <v>0.01372336420526447</v>
+        <v>0.01372336420591155</v>
       </c>
       <c r="O50" t="n">
-        <v>0.4813826181000005</v>
+        <v>0.4813826181565872</v>
       </c>
       <c r="P50" t="n">
-        <v>0.01876877703528106</v>
+        <v>0.01876877703517937</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.2116728901780488</v>
+        <v>0.2116728901782717</v>
       </c>
       <c r="R50" t="n">
-        <v>0.06856634939178997</v>
+        <v>0.06856634939155554</v>
       </c>
       <c r="S50" t="n">
-        <v>0.7492819632999996</v>
+        <v>0.7492819632950543</v>
       </c>
       <c r="T50" t="n">
-        <v>0.04942764072058955</v>
+        <v>0.0494276407206755</v>
       </c>
       <c r="U50" t="n">
-        <v>0.08807165639024389</v>
+        <v>0.08807165639877973</v>
       </c>
       <c r="V50" t="n">
-        <v>0.01535122657201172</v>
+        <v>0.01535122657328425</v>
       </c>
       <c r="W50" t="n">
-        <v>0.4063053760000006</v>
+        <v>0.4063053759392119</v>
       </c>
       <c r="X50" t="n">
-        <v>0.01159227014989241</v>
+        <v>0.011592270150957</v>
       </c>
       <c r="Y50" t="n">
-        <v>0.2049117815573171</v>
+        <v>0.204911781558953</v>
       </c>
       <c r="Z50" t="n">
-        <v>0.06553514063946492</v>
+        <v>0.06553514064158024</v>
       </c>
       <c r="AA50" t="n">
-        <v>0.6462101643999993</v>
+        <v>0.6462101643789993</v>
       </c>
       <c r="AB50" t="n">
-        <v>0.02553651305890697</v>
+        <v>0.02553651305925761</v>
       </c>
       <c r="AC50" t="n">
-        <v>0.0571251856324264</v>
+        <v>0.05712518563127597</v>
       </c>
       <c r="AD50" t="n">
-        <v>0.005724132357170831</v>
+        <v>0.005724132357147475</v>
       </c>
       <c r="AE50" t="n">
-        <v>0.4813826181000005</v>
+        <v>0.4813826181565872</v>
       </c>
       <c r="AF50" t="n">
-        <v>0.01152132656376961</v>
+        <v>0.01152132656350697</v>
       </c>
       <c r="AG50" t="n">
-        <v>0.1947562618727476</v>
+        <v>0.1947562618728877</v>
       </c>
       <c r="AH50" t="n">
-        <v>0.0428254157078834</v>
+        <v>0.04282541570764936</v>
       </c>
       <c r="AI50" t="n">
-        <v>0.7492819632999996</v>
+        <v>0.7492819632950543</v>
       </c>
       <c r="AJ50" t="n">
-        <v>0.03946122824933711</v>
+        <v>0.03946122824934953</v>
       </c>
     </row>
     <row r="51">
@@ -5927,100 +5927,100 @@
         <v>160</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0160168987</v>
+        <v>0.01601689867675304</v>
       </c>
       <c r="F51" t="n">
-        <v>0.0005104067000000001</v>
+        <v>0.0005104066804051399</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1192003489</v>
+        <v>0.1192003488540649</v>
       </c>
       <c r="H51" t="n">
-        <v>5.2765927315</v>
+        <v>5.27659273147583</v>
       </c>
       <c r="I51" t="n">
-        <v>0.0208414979</v>
+        <v>0.02084149792790413</v>
       </c>
       <c r="J51" t="n">
-        <v>0.0010848654</v>
+        <v>0.001084865420125425</v>
       </c>
       <c r="K51" t="n">
-        <v>0.2013890147</v>
+        <v>0.2013890147209167</v>
       </c>
       <c r="L51" t="n">
-        <v>15.4517097473</v>
+        <v>15.45170974731445</v>
       </c>
       <c r="M51" t="n">
-        <v>0.08417649927317074</v>
+        <v>0.08417649927337492</v>
       </c>
       <c r="N51" t="n">
-        <v>0.01372336420526447</v>
+        <v>0.01372336420591155</v>
       </c>
       <c r="O51" t="n">
-        <v>0.4813826181000005</v>
+        <v>0.4813826181565872</v>
       </c>
       <c r="P51" t="n">
-        <v>0.01876877703528106</v>
+        <v>0.01876877703517937</v>
       </c>
       <c r="Q51" t="n">
-        <v>0.2116728901780488</v>
+        <v>0.2116728901782717</v>
       </c>
       <c r="R51" t="n">
-        <v>0.06856634939178997</v>
+        <v>0.06856634939155554</v>
       </c>
       <c r="S51" t="n">
-        <v>0.7492819632999996</v>
+        <v>0.7492819632950543</v>
       </c>
       <c r="T51" t="n">
-        <v>0.04942764072058955</v>
+        <v>0.0494276407206755</v>
       </c>
       <c r="U51" t="n">
-        <v>0.08807165639024389</v>
+        <v>0.08807165639877973</v>
       </c>
       <c r="V51" t="n">
-        <v>0.01535122657201172</v>
+        <v>0.01535122657328425</v>
       </c>
       <c r="W51" t="n">
-        <v>0.4063053760000006</v>
+        <v>0.4063053759392119</v>
       </c>
       <c r="X51" t="n">
-        <v>0.01159227014989241</v>
+        <v>0.011592270150957</v>
       </c>
       <c r="Y51" t="n">
-        <v>0.2049117815573171</v>
+        <v>0.204911781558953</v>
       </c>
       <c r="Z51" t="n">
-        <v>0.06553514063946492</v>
+        <v>0.06553514064158024</v>
       </c>
       <c r="AA51" t="n">
-        <v>0.6462101643999993</v>
+        <v>0.6462101643789993</v>
       </c>
       <c r="AB51" t="n">
-        <v>0.02553651305890697</v>
+        <v>0.02553651305925761</v>
       </c>
       <c r="AC51" t="n">
-        <v>0.0571251856324264</v>
+        <v>0.05712518563127597</v>
       </c>
       <c r="AD51" t="n">
-        <v>0.005724132357170831</v>
+        <v>0.005724132357147475</v>
       </c>
       <c r="AE51" t="n">
-        <v>0.4813826181000005</v>
+        <v>0.4813826181565872</v>
       </c>
       <c r="AF51" t="n">
-        <v>0.01152132656376961</v>
+        <v>0.01152132656350697</v>
       </c>
       <c r="AG51" t="n">
-        <v>0.1947562618727476</v>
+        <v>0.1947562618728877</v>
       </c>
       <c r="AH51" t="n">
-        <v>0.0428254157078834</v>
+        <v>0.04282541570764936</v>
       </c>
       <c r="AI51" t="n">
-        <v>0.7492819632999996</v>
+        <v>0.7492819632950543</v>
       </c>
       <c r="AJ51" t="n">
-        <v>0.03946122824933711</v>
+        <v>0.03946122824934953</v>
       </c>
     </row>
     <row r="52">
@@ -6039,100 +6039,100 @@
         <v>192</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0160168987</v>
+        <v>0.01601689867675304</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0005104067000000001</v>
+        <v>0.0005104066804051399</v>
       </c>
       <c r="G52" t="n">
-        <v>0.1192003489</v>
+        <v>0.1192003488540649</v>
       </c>
       <c r="H52" t="n">
-        <v>5.2765927315</v>
+        <v>5.27659273147583</v>
       </c>
       <c r="I52" t="n">
-        <v>0.0208414979</v>
+        <v>0.02084149792790413</v>
       </c>
       <c r="J52" t="n">
-        <v>0.0010848654</v>
+        <v>0.001084865420125425</v>
       </c>
       <c r="K52" t="n">
-        <v>0.2013890147</v>
+        <v>0.2013890147209167</v>
       </c>
       <c r="L52" t="n">
-        <v>15.4517097473</v>
+        <v>15.45170974731445</v>
       </c>
       <c r="M52" t="n">
-        <v>0.08417649927317074</v>
+        <v>0.08417649927337492</v>
       </c>
       <c r="N52" t="n">
-        <v>0.01372336420526447</v>
+        <v>0.01372336420591155</v>
       </c>
       <c r="O52" t="n">
-        <v>0.4813826181000005</v>
+        <v>0.4813826181565872</v>
       </c>
       <c r="P52" t="n">
-        <v>0.01876877703528106</v>
+        <v>0.01876877703517937</v>
       </c>
       <c r="Q52" t="n">
-        <v>0.2116728901780488</v>
+        <v>0.2116728901782717</v>
       </c>
       <c r="R52" t="n">
-        <v>0.06856634939178997</v>
+        <v>0.06856634939155554</v>
       </c>
       <c r="S52" t="n">
-        <v>0.7492819632999996</v>
+        <v>0.7492819632950543</v>
       </c>
       <c r="T52" t="n">
-        <v>0.04942764072058955</v>
+        <v>0.0494276407206755</v>
       </c>
       <c r="U52" t="n">
-        <v>0.08807165639024389</v>
+        <v>0.08807165639877973</v>
       </c>
       <c r="V52" t="n">
-        <v>0.01535122657201172</v>
+        <v>0.01535122657328425</v>
       </c>
       <c r="W52" t="n">
-        <v>0.4063053760000006</v>
+        <v>0.4063053759392119</v>
       </c>
       <c r="X52" t="n">
-        <v>0.01159227014989241</v>
+        <v>0.011592270150957</v>
       </c>
       <c r="Y52" t="n">
-        <v>0.2049117815573171</v>
+        <v>0.204911781558953</v>
       </c>
       <c r="Z52" t="n">
-        <v>0.06553514063946492</v>
+        <v>0.06553514064158024</v>
       </c>
       <c r="AA52" t="n">
-        <v>0.6462101643999993</v>
+        <v>0.6462101643789993</v>
       </c>
       <c r="AB52" t="n">
-        <v>0.02553651305890697</v>
+        <v>0.02553651305925761</v>
       </c>
       <c r="AC52" t="n">
-        <v>0.0571251856324264</v>
+        <v>0.05712518563127597</v>
       </c>
       <c r="AD52" t="n">
-        <v>0.005724132357170831</v>
+        <v>0.005724132357147475</v>
       </c>
       <c r="AE52" t="n">
-        <v>0.4813826181000005</v>
+        <v>0.4813826181565872</v>
       </c>
       <c r="AF52" t="n">
-        <v>0.01152132656376961</v>
+        <v>0.01152132656350697</v>
       </c>
       <c r="AG52" t="n">
-        <v>0.1947562618727476</v>
+        <v>0.1947562618728877</v>
       </c>
       <c r="AH52" t="n">
-        <v>0.0428254157078834</v>
+        <v>0.04282541570764936</v>
       </c>
       <c r="AI52" t="n">
-        <v>0.7492819632999996</v>
+        <v>0.7492819632950543</v>
       </c>
       <c r="AJ52" t="n">
-        <v>0.03946122824933711</v>
+        <v>0.03946122824934953</v>
       </c>
     </row>
   </sheetData>
